--- a/dataset_clean_1.xlsx
+++ b/dataset_clean_1.xlsx
@@ -26,6 +26,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -38,6 +39,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -50,6 +52,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -62,6 +65,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -74,6 +78,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -86,6 +91,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -98,6 +104,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -110,6 +117,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -122,6 +130,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -134,6 +143,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -146,6 +156,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -158,6 +169,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -170,6 +182,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -182,6 +195,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -194,6 +208,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -206,6 +221,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -218,6 +234,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -230,6 +247,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -242,6 +260,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -254,6 +273,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -266,6 +286,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -278,6 +299,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -290,6 +312,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -302,6 +325,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -314,6 +338,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -326,6 +351,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -338,6 +364,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -350,6 +377,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -362,6 +390,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -374,6 +403,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -386,6 +416,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -398,6 +429,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -410,6 +442,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -422,6 +455,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -434,6 +468,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -446,6 +481,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -458,6 +494,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -470,6 +507,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -482,6 +520,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -494,6 +533,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -506,6 +546,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -518,6 +559,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -530,6 +572,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -542,6 +585,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -554,6 +598,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -566,6 +611,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -578,6 +624,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -590,6 +637,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -602,6 +650,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -614,6 +663,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -626,6 +676,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -638,6 +689,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -650,6 +702,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -662,6 +715,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -674,6 +728,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -686,6 +741,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -698,6 +754,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -710,6 +767,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -722,6 +780,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -734,6 +793,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -746,6 +806,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -758,6 +819,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -770,6 +832,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -782,6 +845,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -794,6 +858,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -806,6 +871,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -818,6 +884,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -830,6 +897,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -842,6 +910,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -854,6 +923,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -866,6 +936,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -878,6 +949,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -890,6 +962,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -902,6 +975,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -914,6 +988,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -926,6 +1001,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -938,6 +1014,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -950,6 +1027,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -962,6 +1040,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -974,6 +1053,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -986,6 +1066,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -998,6 +1079,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1010,6 +1092,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1022,6 +1105,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1034,6 +1118,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1046,6 +1131,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1058,6 +1144,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1070,6 +1157,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1082,6 +1170,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1094,6 +1183,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1106,6 +1196,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1118,6 +1209,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1130,6 +1222,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1142,6 +1235,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1154,6 +1248,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1166,6 +1261,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1178,6 +1274,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1190,6 +1287,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1202,6 +1300,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1214,6 +1313,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1226,6 +1326,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1238,6 +1339,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1250,6 +1352,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1262,6 +1365,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1274,6 +1378,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1286,6 +1391,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1298,6 +1404,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1310,6 +1417,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1322,6 +1430,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1334,6 +1443,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1346,6 +1456,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1358,6 +1469,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1370,6 +1482,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1382,6 +1495,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1394,6 +1508,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1406,6 +1521,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1418,6 +1534,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1430,6 +1547,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1442,6 +1560,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1454,6 +1573,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1466,6 +1586,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1478,6 +1599,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1490,6 +1612,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1502,6 +1625,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1514,6 +1638,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1526,6 +1651,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1538,6 +1664,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Le participant a mis à jour cette valeur.</t>
         </r>
@@ -1559,12 +1686,6 @@
     <t>Quel est votre sexe?</t>
   </si>
   <si>
-    <t>Quel est votre niveau d'étude?</t>
-  </si>
-  <si>
-    <t>Quelle est votre école / faculté</t>
-  </si>
-  <si>
     <t>Est-ce que vous suivez/avez suivi des 2 ?</t>
   </si>
   <si>
@@ -1574,39 +1695,12 @@
     <t>Quels appareils utilisez-vous ?</t>
   </si>
   <si>
-    <t>Quelle est votre plateforme préférée ?</t>
-  </si>
-  <si>
-    <t>Quels sont les problèmes techniques auxquels vous faites face ? [Perte de connexion ou débit faible]</t>
-  </si>
-  <si>
-    <t>Combien de séance vous étudiez par semaine ?</t>
-  </si>
-  <si>
     <t>Durant l'enseignement à distance: [Les devoirs sont devenus nombreux]</t>
   </si>
   <si>
-    <t>Qu'est ce que vous préférez? [Sous les conditions actuelles]</t>
-  </si>
-  <si>
     <t>Les cours sont plus sous forme de: [Cours interactive]</t>
   </si>
   <si>
-    <t>Comment cette situation 2t affecter votre classement pour le choix de filière, mobilité ou double diplomation</t>
-  </si>
-  <si>
-    <t>Quels sont les problèmes techniques auxquels vous faites face ? [Manipulation des plateformes]</t>
-  </si>
-  <si>
-    <t>Quels sont les problèmes techniques auxquels vous faites face ? [Coupure d'électricité]</t>
-  </si>
-  <si>
-    <t>Quels sont les problèmes techniques auxquels vous faites face ? [blocage de l'ordinateur]</t>
-  </si>
-  <si>
-    <t>Quels sont les problèmes techniques auxquels vous faites face ? [Indisponibilité des appareils]</t>
-  </si>
-  <si>
     <t>Durant l'enseignement à distance: [Les cours sont plus difficile à suvire]</t>
   </si>
   <si>
@@ -1616,120 +1710,30 @@
     <t>Durant l'enseignement à distance: [Vous assimilez les cours]</t>
   </si>
   <si>
-    <t>Les cours sont plus sous forme de: [Visioconférence]</t>
-  </si>
-  <si>
-    <t>Les cours sont plus sous forme de: [Cours PDF/PPT téléchargeable]</t>
-  </si>
-  <si>
-    <t>Les cours sont plus sous forme de: [Vidéo téléchargeable]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous-préférez le plus: [Cours interactive]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous-préférez le plus: [Visioconférence]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous-préférez le plus: [Cours PDF/PPT téléchargeable]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous-préférez le plus: [Vidéo téléchargeable]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [Les devoirs sont devenus nombreux]</t>
   </si>
   <si>
-    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants sont bien formés pour assurer des 2]</t>
-  </si>
-  <si>
     <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants respectent les horaires]</t>
   </si>
   <si>
-    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les élèves respectent les horaires]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants s'assurent de l'assiduité des élèves]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Vous avez une excellente assiduité durant les 2]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Vous gérer bien votre temps]</t>
-  </si>
-  <si>
     <t>Qu'est ce que vous pensez des affirmations suivantes?  [Vous dormez plus]</t>
   </si>
   <si>
-    <t>Les enseignants s'assurent de l'assiduité des élèves à l'aide : [Des quiz]</t>
-  </si>
-  <si>
-    <t>Les enseignants s'assurent de l'assiduité des élèves à l'aide : [D'appel]</t>
-  </si>
-  <si>
-    <t>Les enseignants s'assurent de l'assiduité des élèves à l'aide : [Des questions durant le cours]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants sont bien formés pour assurer des 2?]</t>
-  </si>
-  <si>
-    <t>Comment vous impacte cette situation actuelle? [Productivité]</t>
-  </si>
-  <si>
     <t>Comment vous impacte cette situation actuelle? [Innovation]</t>
   </si>
   <si>
-    <t>Comment vous impacte cette situation actuelle? [Créativité]</t>
-  </si>
-  <si>
     <t>Comment vous impacte cette situation actuelle? [Stress]</t>
   </si>
   <si>
-    <t>Comment vous impacte cette situation actuelle? [Anxiété]</t>
-  </si>
-  <si>
     <t>Comment vous impacte cette situation actuelle? [Ennui]</t>
   </si>
   <si>
-    <t>Comment vous impacte cette situation actuelle? [Dépression]</t>
-  </si>
-  <si>
     <t>Comment vous impacte cette situation actuelle? [Concentration]</t>
   </si>
   <si>
-    <t>Préférez-vous les examens: [En présentiel]</t>
-  </si>
-  <si>
-    <t>Préférez-vous les examens: [Questions ouvertes]</t>
-  </si>
-  <si>
-    <t>Préférez-vous les examens: [Questions à choix multiple]</t>
-  </si>
-  <si>
-    <t>Préférez-vous les examens: [Vidéo téléchargeable]</t>
-  </si>
-  <si>
-    <t>Préférez-vous les examens: [Projet]</t>
-  </si>
-  <si>
-    <t>Préférez-vous les examens: [Excercices]</t>
-  </si>
-  <si>
-    <t>Préférez-vous les examens: [Evaluation orale (à distance)]</t>
-  </si>
-  <si>
-    <t>Préférez-vous les examens: [À distance]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous préférez? [Après amélioration des conditions de l'enseignement à distance]</t>
-  </si>
-  <si>
     <t>Adresse e-mail</t>
   </si>
   <si>
-    <t>Les enseignants s'assurent de l'assiduité des élèves è l'aide : [Vidéo téléchargeable]</t>
-  </si>
-  <si>
     <t>2, 3</t>
   </si>
   <si>
@@ -2016,6 +2020,129 @@
   </si>
   <si>
     <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>Quel est votre niveau d'etude?</t>
+  </si>
+  <si>
+    <t>Quelle est votre ecole / faculte</t>
+  </si>
+  <si>
+    <t>Quelle est votre plateforme preferee ?</t>
+  </si>
+  <si>
+    <t>Combien de seance vous etudiez par semaine ?</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous preferez? [Sous les conditions actuelles]</t>
+  </si>
+  <si>
+    <t>Les cours sont plus sous forme de: [Visioconference]</t>
+  </si>
+  <si>
+    <t>Les cours sont plus sous forme de: [Cours PDF/PPT telechargeable]</t>
+  </si>
+  <si>
+    <t>Les cours sont plus sous forme de: [Video telechargeable]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous-preferez le plus: [Cours interactive]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous-preferez le plus: [Visioconference]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous-preferez le plus: [Cours PDF/PPT telechargeable]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous-preferez le plus: [Video telechargeable]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants sont bien formes pour assurer des 2]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Vous avez une excellente assiduite durant les 2]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Vous gerer bien votre temps]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants sont bien formes pour assurer des 2?]</t>
+  </si>
+  <si>
+    <t>Comment vous impacte cette situation actuelle? [Productivite]</t>
+  </si>
+  <si>
+    <t>Comment vous impacte cette situation actuelle? [Creativite]</t>
+  </si>
+  <si>
+    <t>Comment vous impacte cette situation actuelle? [Anxiete]</t>
+  </si>
+  <si>
+    <t>Comment vous impacte cette situation actuelle? [Depression]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [En presentiel]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Questions ouvertes]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Questions à choix multiple]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Video telechargeable]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Projet]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Excercices]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Evaluation orale (à distance)]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [À distance]</t>
+  </si>
+  <si>
+    <t>Quels sont les problemes techniques auxquels vous faites face ? [Perte de connexion ou debit faible]</t>
+  </si>
+  <si>
+    <t>Comment cette situation 2t affecter votre classement pour le choix de filiere, mobilite ou double diplomation</t>
+  </si>
+  <si>
+    <t>Quels sont les problemes techniques auxquels vous faites face ? [Manipulation des plateformes]</t>
+  </si>
+  <si>
+    <t>Quels sont les problemes techniques auxquels vous faites face ? [Coupure d'electricite]</t>
+  </si>
+  <si>
+    <t>Quels sont les problemes techniques auxquels vous faites face ? [blocage de l'ordinateur]</t>
+  </si>
+  <si>
+    <t>Quels sont les problemes techniques auxquels vous faites face ? [Indisponibilite des appareils]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les eleves respectent les horaires]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants s'assurent de l'assiduite des eleves]</t>
+  </si>
+  <si>
+    <t>Les enseignants s'assurent de l'assiduite des eleves à l'aide : [Des quiz]</t>
+  </si>
+  <si>
+    <t>Les enseignants s'assurent de l'assiduite des eleves à l'aide : [D'appel]</t>
+  </si>
+  <si>
+    <t>Les enseignants s'assurent de l'assiduite des eleves à l'aide : [Des questions durant le cours]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous preferez? [Apres amelioration des conditions de l'enseignement à distance]</t>
+  </si>
+  <si>
+    <t>Les enseignants s'assurent de l'assiduite des eleves e l'aide : [Video telechargeable]</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2039,6 +2166,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2335,178 +2468,178 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BH1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="BI1" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.2">
@@ -2529,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -2676,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.2">
@@ -2699,10 +2832,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -2850,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="BI3" s="5"/>
     </row>
@@ -2874,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -3021,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.2">
@@ -3044,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -3191,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.2">
@@ -3217,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -3361,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.2">
@@ -3531,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.2">
@@ -3557,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -3701,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.2">
@@ -3871,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.2">
@@ -4041,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.2">
@@ -4064,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.2">
@@ -4090,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -4234,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.2">
@@ -4257,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
@@ -4404,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.2">
@@ -4427,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -4574,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.2">
@@ -4744,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="BH15" s="3" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.2">
@@ -4767,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -4914,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="BH16" s="3" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.2">
@@ -4937,10 +5070,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -5084,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="BH17" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.2">
@@ -5107,10 +5240,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -5254,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="BH18" s="3" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.2">
@@ -5277,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="BH19" s="3" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.2">
@@ -5300,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="BH20" s="3" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.2">
@@ -5323,10 +5456,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2">
         <v>3</v>
@@ -5470,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="BH21" s="3" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.2">
@@ -5496,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5640,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="BH22" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.2">
@@ -5663,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.2">
@@ -5686,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="BH24" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
@@ -5709,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
@@ -5860,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="BH25" s="3" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="BI25" s="5"/>
     </row>
@@ -5884,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -6031,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="BH26" s="3" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.2">
@@ -6054,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H27" s="2">
         <v>2</v>
@@ -6201,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.2">
@@ -6224,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I28" s="2">
         <v>3</v>
@@ -6371,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="BH28" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.2">
@@ -6394,10 +6527,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -6541,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="BH29" s="3" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
@@ -6564,13 +6697,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J30" s="2">
         <v>5</v>
@@ -6711,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="BH30" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
@@ -6734,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H31" s="2">
         <v>2</v>
@@ -6881,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="BH31" s="3" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
@@ -6904,10 +7037,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I32" s="2">
         <v>3</v>
@@ -7051,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="BH32" s="3" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
@@ -7074,10 +7207,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
@@ -7221,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="BH33" s="3" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
@@ -7244,10 +7377,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -7391,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="BH34" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.2">
@@ -7414,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H35" s="2">
         <v>2</v>
@@ -7561,7 +7694,7 @@
         <v>2</v>
       </c>
       <c r="BH35" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.2">
@@ -7584,10 +7717,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I36" s="2">
         <v>3</v>
@@ -7731,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="BH36" s="3" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.2">
@@ -7754,10 +7887,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
@@ -7901,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="BH37" s="3" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.2">
@@ -7924,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="BH38" s="3" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.2">
@@ -7947,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H39" s="2">
         <v>2</v>
@@ -8094,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="BH39" s="3" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.2">
@@ -8117,154 +8250,154 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2">
+        <v>4</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>5</v>
+      </c>
+      <c r="R40" s="2">
+        <v>3</v>
+      </c>
+      <c r="S40" s="2">
+        <v>4</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>4</v>
+      </c>
+      <c r="V40" s="2">
+        <v>4</v>
+      </c>
+      <c r="W40" s="2">
+        <v>2</v>
+      </c>
+      <c r="X40" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ40" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB40" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>4</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>5</v>
+      </c>
+      <c r="BE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF40" s="2">
+        <v>5</v>
+      </c>
+      <c r="BG40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH40" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>2</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>4</v>
-      </c>
-      <c r="M40" s="2">
-        <v>2</v>
-      </c>
-      <c r="N40" s="2">
-        <v>4</v>
-      </c>
-      <c r="O40" s="3">
-        <v>1</v>
-      </c>
-      <c r="P40" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>5</v>
-      </c>
-      <c r="R40" s="2">
-        <v>3</v>
-      </c>
-      <c r="S40" s="2">
-        <v>4</v>
-      </c>
-      <c r="T40" s="2">
-        <v>1</v>
-      </c>
-      <c r="U40" s="2">
-        <v>4</v>
-      </c>
-      <c r="V40" s="2">
-        <v>4</v>
-      </c>
-      <c r="W40" s="2">
-        <v>2</v>
-      </c>
-      <c r="X40" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AI40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AK40" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL40" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>5</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>3</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>3</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>3</v>
-      </c>
-      <c r="AS40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AT40" s="2">
-        <v>3</v>
-      </c>
-      <c r="AU40" s="2">
-        <v>5</v>
-      </c>
-      <c r="AV40" s="2">
-        <v>3</v>
-      </c>
-      <c r="AW40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AZ40" s="2">
-        <v>2</v>
-      </c>
-      <c r="BB40" s="2">
-        <v>2</v>
-      </c>
-      <c r="BC40" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD40" s="2">
-        <v>5</v>
-      </c>
-      <c r="BE40" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF40" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG40" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH40" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.2">
@@ -8287,10 +8420,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
@@ -8434,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="BH41" s="3" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.2">
@@ -8457,10 +8590,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -8604,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="BH42" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.2">
@@ -8630,7 +8763,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I43" s="2">
         <v>3</v>
@@ -8774,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="BH43" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.2">
@@ -8797,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -8944,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="BH44" s="3" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.2">
@@ -8970,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -9114,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="BH45" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.2">
@@ -9137,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H46" s="2">
         <v>3</v>
@@ -9284,7 +9417,7 @@
         <v>2</v>
       </c>
       <c r="BH46" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.2">
@@ -9307,13 +9440,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H47" s="2">
         <v>2</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J47" s="2">
         <v>2</v>
@@ -9454,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="BH47" s="3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.2">
@@ -9477,10 +9610,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="I48" s="2">
         <v>3</v>
@@ -9624,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="BH48" s="3" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.2">
@@ -9794,7 +9927,7 @@
         <v>2</v>
       </c>
       <c r="BH49" s="3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.2">
@@ -9817,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="BH50" s="3" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.2">
@@ -9840,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H51" s="2">
         <v>2</v>
@@ -9987,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="BH51" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.2">
@@ -10157,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="BH52" s="3" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.2">
@@ -10180,10 +10313,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I53" s="2">
         <v>3</v>
@@ -10327,7 +10460,7 @@
         <v>2</v>
       </c>
       <c r="BH53" s="3" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.2">
@@ -10350,13 +10483,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H54" s="2">
         <v>2</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J54" s="2">
         <v>2</v>
@@ -10497,7 +10630,7 @@
         <v>2</v>
       </c>
       <c r="BH54" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.2">
@@ -10667,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="BH55" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.2">
@@ -10690,10 +10823,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
@@ -10837,7 +10970,7 @@
         <v>2</v>
       </c>
       <c r="BH56" s="3" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.2">
@@ -10860,10 +10993,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
@@ -11007,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="BH57" s="3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.2">
@@ -11030,7 +11163,7 @@
         <v>2</v>
       </c>
       <c r="BH58" s="3" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.2">
@@ -11053,13 +11186,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="H59" s="2">
         <v>2</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J59" s="2">
         <v>2</v>
@@ -11200,7 +11333,7 @@
         <v>2</v>
       </c>
       <c r="BH59" s="3" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.2">
@@ -11223,10 +11356,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I60" s="2">
         <v>3</v>
@@ -11370,7 +11503,7 @@
         <v>1</v>
       </c>
       <c r="BH60" s="3" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:60" x14ac:dyDescent="0.2">
@@ -11396,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I61" s="2">
         <v>3</v>
@@ -11540,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="BH61" s="3" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.2">
@@ -11563,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
@@ -11710,7 +11843,7 @@
         <v>2</v>
       </c>
       <c r="BH62" s="3" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.2">
@@ -11733,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="BH63" s="3" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.2">
@@ -11903,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="BH64" s="3" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:60" x14ac:dyDescent="0.2">
@@ -11929,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I65" s="2">
         <v>1</v>
@@ -12073,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="BH65" s="3" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.2">
@@ -12096,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="BH66" s="3" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:60" x14ac:dyDescent="0.2">
@@ -12119,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="BH67" s="3" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:60" x14ac:dyDescent="0.2">
@@ -12289,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="BH68" s="3" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.2">
@@ -12312,7 +12445,7 @@
         <v>2</v>
       </c>
       <c r="BH69" s="3" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:60" x14ac:dyDescent="0.2">
@@ -12335,10 +12468,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I70" s="2">
         <v>3</v>
@@ -12482,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="BH70" s="3" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:60" x14ac:dyDescent="0.2">
@@ -12508,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I71" s="2">
         <v>1</v>
@@ -12652,7 +12785,7 @@
         <v>2</v>
       </c>
       <c r="BH71" s="3" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:60" x14ac:dyDescent="0.2">
@@ -12675,7 +12808,7 @@
         <v>2</v>
       </c>
       <c r="BH72" s="3" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:60" x14ac:dyDescent="0.2">
@@ -12698,7 +12831,7 @@
         <v>2</v>
       </c>
       <c r="BH73" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:60" x14ac:dyDescent="0.2">
@@ -12721,10 +12854,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I74" s="2">
         <v>1</v>
@@ -12868,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="BH74" s="3" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
@@ -12891,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H75" s="2">
         <v>2</v>
@@ -13038,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="BH75" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:60" x14ac:dyDescent="0.2">
@@ -13061,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H76" s="2">
         <v>2</v>
@@ -13208,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="BH76" s="3" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.2">
@@ -13378,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="BH77" s="2" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
@@ -13407,7 +13540,7 @@
         <v>3</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
@@ -13548,7 +13681,7 @@
         <v>1</v>
       </c>
       <c r="BH78" s="3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
@@ -13718,7 +13851,7 @@
         <v>2</v>
       </c>
       <c r="BH79" s="3" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:60" x14ac:dyDescent="0.2">
@@ -13741,7 +13874,7 @@
         <v>2</v>
       </c>
       <c r="BH80" s="3" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
@@ -13764,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="H81" s="2">
         <v>2</v>
@@ -13911,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="BH81" s="3" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
@@ -14081,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="BH82" s="3" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
@@ -14104,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H83" s="2">
         <v>3</v>
@@ -14251,7 +14384,7 @@
         <v>1</v>
       </c>
       <c r="BH83" s="3" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
@@ -14274,13 +14407,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="H84" s="2">
         <v>2</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -14421,7 +14554,7 @@
         <v>2</v>
       </c>
       <c r="BH84" s="3" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
@@ -14447,7 +14580,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I85" s="2">
         <v>5</v>
@@ -14591,7 +14724,7 @@
         <v>2</v>
       </c>
       <c r="BH85" s="3" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
@@ -14617,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I86" s="2">
         <v>1</v>
@@ -14761,7 +14894,7 @@
         <v>2</v>
       </c>
       <c r="BH86" s="3" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
@@ -14784,7 +14917,7 @@
         <v>2</v>
       </c>
       <c r="BH87" s="3" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_clean_1.xlsx
+++ b/dataset_clean_1.xlsx
@@ -383,6 +383,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AE3" authorId="0">
       <text>
         <r>
@@ -513,6 +526,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AO3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AP3" authorId="0">
       <text>
         <r>
@@ -617,6 +643,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AX3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AY3" authorId="0">
       <text>
         <r>
@@ -643,6 +682,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="BA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BB3" authorId="0">
       <text>
         <r>
@@ -657,58 +709,6 @@
       </text>
     </comment>
     <comment ref="BC3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,6 +1007,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AE25" authorId="0">
       <text>
         <r>
@@ -1137,6 +1150,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AO25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AP25" authorId="0">
       <text>
         <r>
@@ -1241,6 +1267,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AX25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AY25" authorId="0">
       <text>
         <r>
@@ -1267,6 +1306,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="BA25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BB25" authorId="0">
       <text>
         <r>
@@ -1281,58 +1333,6 @@
       </text>
     </comment>
     <comment ref="BC25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1540,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG82" authorId="0">
+    <comment ref="AF82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1566,7 +1579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ82" authorId="0">
+    <comment ref="AN82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1579,7 +1592,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP82" authorId="0">
+    <comment ref="AQ82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Le participant a mis à jour cette valeur.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1631,33 +1657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV82" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW82" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le participant a mis à jour cette valeur.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD82" authorId="0">
+    <comment ref="AZ82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1675,14 +1675,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="152">
   <si>
     <t>Horodateur</t>
   </si>
   <si>
-    <t>Quel est votre âge?</t>
-  </si>
-  <si>
     <t>Quel est votre sexe?</t>
   </si>
   <si>
@@ -1695,24 +1692,9 @@
     <t>Quels appareils utilisez-vous ?</t>
   </si>
   <si>
-    <t>Durant l'enseignement à distance: [Les devoirs sont devenus nombreux]</t>
-  </si>
-  <si>
     <t>Les cours sont plus sous forme de: [Cours interactive]</t>
   </si>
   <si>
-    <t>Durant l'enseignement à distance: [Les cours sont plus difficile à suvire]</t>
-  </si>
-  <si>
-    <t>Durant l'enseignement à distance: [Les cours vous posent sur la bonne voie pour s'approfondir]</t>
-  </si>
-  <si>
-    <t>Durant l'enseignement à distance: [Vous assimilez les cours]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [Les devoirs sont devenus nombreux]</t>
-  </si>
-  <si>
     <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants respectent les horaires]</t>
   </si>
   <si>
@@ -2067,9 +2049,6 @@
     <t>Qu'est ce que vous pensez des affirmations suivantes?  [Vous gerer bien votre temps]</t>
   </si>
   <si>
-    <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants sont bien formes pour assurer des 2?]</t>
-  </si>
-  <si>
     <t>Comment vous impacte cette situation actuelle? [Productivite]</t>
   </si>
   <si>
@@ -2088,24 +2067,12 @@
     <t>Preferez-vous les examens: [Questions ouvertes]</t>
   </si>
   <si>
-    <t>Preferez-vous les examens: [Questions à choix multiple]</t>
-  </si>
-  <si>
-    <t>Preferez-vous les examens: [Video telechargeable]</t>
-  </si>
-  <si>
     <t>Preferez-vous les examens: [Projet]</t>
   </si>
   <si>
     <t>Preferez-vous les examens: [Excercices]</t>
   </si>
   <si>
-    <t>Preferez-vous les examens: [Evaluation orale (à distance)]</t>
-  </si>
-  <si>
-    <t>Preferez-vous les examens: [À distance]</t>
-  </si>
-  <si>
     <t>Quels sont les problemes techniques auxquels vous faites face ? [Perte de connexion ou debit faible]</t>
   </si>
   <si>
@@ -2130,19 +2097,40 @@
     <t>Qu'est ce que vous pensez des affirmations suivantes?  [Les enseignants s'assurent de l'assiduite des eleves]</t>
   </si>
   <si>
-    <t>Les enseignants s'assurent de l'assiduite des eleves à l'aide : [Des quiz]</t>
-  </si>
-  <si>
-    <t>Les enseignants s'assurent de l'assiduite des eleves à l'aide : [D'appel]</t>
-  </si>
-  <si>
-    <t>Les enseignants s'assurent de l'assiduite des eleves à l'aide : [Des questions durant le cours]</t>
-  </si>
-  <si>
-    <t>Qu'est ce que vous preferez? [Apres amelioration des conditions de l'enseignement à distance]</t>
-  </si>
-  <si>
-    <t>Les enseignants s'assurent de l'assiduite des eleves e l'aide : [Video telechargeable]</t>
+    <t>Durant l'enseignement a distance: [Les devoirs sont devenus nombreux]</t>
+  </si>
+  <si>
+    <t>Durant l'enseignement a distance: [Les cours sont plus difficile a suvire]</t>
+  </si>
+  <si>
+    <t>Durant l'enseignement a distance: [Les cours vous posent sur la bonne voie pour s'approfondir]</t>
+  </si>
+  <si>
+    <t>Durant l'enseignement a distance: [Vous assimilez les cours]</t>
+  </si>
+  <si>
+    <t>Les enseignants s'assurent de l'assiduite des eleves a l'aide : [Des quiz]</t>
+  </si>
+  <si>
+    <t>Les enseignants s'assurent de l'assiduite des eleves a l'aide : [D'appel]</t>
+  </si>
+  <si>
+    <t>Les enseignants s'assurent de l'assiduite des eleves a l'aide : [Des questions durant le cours]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Questions a choix multiple]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [Evaluation orale (a distance)]</t>
+  </si>
+  <si>
+    <t>Preferez-vous les examens: [a distance]</t>
+  </si>
+  <si>
+    <t>Qu'est ce que vous preferez? [Apres amelioration des conditions de l'enseignement a distance]</t>
+  </si>
+  <si>
+    <t>Quel est votre age?</t>
   </si>
 </sst>
 </file>
@@ -2196,13 +2184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -2429,11 +2416,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2454,195 +2441,182 @@
     <col min="14" max="14" width="37.140625" customWidth="1"/>
     <col min="15" max="15" width="97" customWidth="1"/>
     <col min="16" max="16" width="98.7109375" customWidth="1"/>
-    <col min="17" max="67" width="21.5703125" customWidth="1"/>
+    <col min="17" max="55" width="21.5703125" customWidth="1"/>
+    <col min="56" max="56" width="39.85546875" customWidth="1"/>
+    <col min="57" max="62" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43994.142311516203</v>
       </c>
@@ -2662,10 +2636,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -2730,26 +2704,29 @@
       <c r="AC2" s="2">
         <v>5</v>
       </c>
+      <c r="AD2" s="2">
+        <v>3</v>
+      </c>
       <c r="AE2" s="2">
         <v>3</v>
       </c>
       <c r="AF2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="2">
         <v>3</v>
       </c>
       <c r="AI2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL2" s="2">
         <v>3</v>
@@ -2758,7 +2735,10 @@
         <v>3</v>
       </c>
       <c r="AN2" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1</v>
       </c>
       <c r="AP2" s="2">
         <v>1</v>
@@ -2779,40 +2759,34 @@
         <v>1</v>
       </c>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>2</v>
       </c>
       <c r="AY2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ2" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>2</v>
       </c>
       <c r="BB2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC2" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF2" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43994.148106620371</v>
       </c>
@@ -2832,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -2900,94 +2874,89 @@
       <c r="AC3" s="3">
         <v>4</v>
       </c>
-      <c r="AD3" s="5"/>
+      <c r="AD3" s="3">
+        <v>4</v>
+      </c>
       <c r="AE3" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="3">
         <v>1</v>
       </c>
       <c r="AG3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH3" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="3">
         <v>2</v>
       </c>
       <c r="AM3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN3" s="3">
         <v>3</v>
       </c>
-      <c r="AO3" s="5"/>
+      <c r="AO3" s="3">
+        <v>3</v>
+      </c>
       <c r="AP3" s="3">
         <v>3</v>
       </c>
       <c r="AQ3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT3" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU3" s="3">
         <v>3</v>
       </c>
       <c r="AV3" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="3">
-        <v>3</v>
-      </c>
-      <c r="AX3" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>4</v>
+      </c>
       <c r="AY3" s="3">
         <v>3</v>
       </c>
       <c r="AZ3" s="3">
         <v>2</v>
       </c>
-      <c r="BA3" s="5"/>
+      <c r="BA3" s="3">
+        <v>2</v>
+      </c>
       <c r="BB3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC3" s="3">
-        <v>3</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI3" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43994.183455497681</v>
       </c>
@@ -3007,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -3075,50 +3044,56 @@
       <c r="AC4" s="2">
         <v>3</v>
       </c>
+      <c r="AD4" s="2">
+        <v>3</v>
+      </c>
       <c r="AE4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="2">
         <v>4</v>
       </c>
       <c r="AI4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN4" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>3</v>
       </c>
       <c r="AP4" s="2">
         <v>3</v>
       </c>
       <c r="AQ4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU4" s="2">
         <v>1</v>
@@ -3127,37 +3102,31 @@
         <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>3</v>
       </c>
       <c r="AY4" s="2">
         <v>3</v>
       </c>
       <c r="AZ4" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC4" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43994.195290231481</v>
       </c>
@@ -3177,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -3245,26 +3214,29 @@
       <c r="AC5" s="2">
         <v>5</v>
       </c>
+      <c r="AD5" s="2">
+        <v>3</v>
+      </c>
       <c r="AE5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="2">
         <v>4</v>
       </c>
       <c r="AI5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL5" s="2">
         <v>3</v>
@@ -3273,61 +3245,58 @@
         <v>3</v>
       </c>
       <c r="AN5" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>5</v>
       </c>
       <c r="AP5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2">
         <v>4</v>
       </c>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>5</v>
       </c>
       <c r="AY5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>5</v>
       </c>
       <c r="BB5" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC5" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>5</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43994.202258472222</v>
       </c>
@@ -3350,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -3415,11 +3384,14 @@
       <c r="AC6" s="2">
         <v>2</v>
       </c>
+      <c r="AD6" s="2">
+        <v>4</v>
+      </c>
       <c r="AE6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="2">
         <v>4</v>
@@ -3428,31 +3400,34 @@
         <v>4</v>
       </c>
       <c r="AI6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ6" s="2">
         <v>3</v>
       </c>
       <c r="AK6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="2">
         <v>3</v>
       </c>
       <c r="AP6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS6" s="2">
         <v>5</v>
@@ -3461,43 +3436,37 @@
         <v>5</v>
       </c>
       <c r="AU6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>5</v>
       </c>
       <c r="AY6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ6" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC6" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>4</v>
-      </c>
-      <c r="BE6" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG6" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43994.261999872688</v>
       </c>
@@ -3585,44 +3554,50 @@
       <c r="AC7" s="2">
         <v>5</v>
       </c>
+      <c r="AD7" s="2">
+        <v>4</v>
+      </c>
       <c r="AE7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7" s="2">
         <v>3</v>
       </c>
       <c r="AL7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN7" s="2">
         <v>3</v>
       </c>
+      <c r="AO7" s="2">
+        <v>4</v>
+      </c>
       <c r="AP7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS7" s="2">
         <v>3</v>
@@ -3634,40 +3609,34 @@
         <v>3</v>
       </c>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ7" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>3</v>
       </c>
       <c r="BB7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC7" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH7" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43994.388973530091</v>
       </c>
@@ -3690,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -3755,6 +3724,9 @@
       <c r="AC8" s="2">
         <v>4</v>
       </c>
+      <c r="AD8" s="2">
+        <v>4</v>
+      </c>
       <c r="AE8" s="2">
         <v>4</v>
       </c>
@@ -3765,16 +3737,16 @@
         <v>4</v>
       </c>
       <c r="AH8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="2">
         <v>5</v>
@@ -3783,7 +3755,10 @@
         <v>5</v>
       </c>
       <c r="AN8" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>3</v>
       </c>
       <c r="AP8" s="2">
         <v>3</v>
@@ -3801,43 +3776,37 @@
         <v>3</v>
       </c>
       <c r="AU8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV8" s="2">
         <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
         <v>3</v>
       </c>
       <c r="AZ8" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>2</v>
       </c>
       <c r="BB8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC8" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>43994.417738460645</v>
       </c>
@@ -3925,6 +3894,9 @@
       <c r="AC9" s="2">
         <v>5</v>
       </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
       <c r="AE9" s="2">
         <v>1</v>
       </c>
@@ -3941,28 +3913,31 @@
         <v>1</v>
       </c>
       <c r="AJ9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK9" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>4</v>
       </c>
       <c r="AP9" s="2">
         <v>4</v>
       </c>
       <c r="AQ9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" s="2">
         <v>5</v>
@@ -3971,13 +3946,16 @@
         <v>5</v>
       </c>
       <c r="AU9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="2">
         <v>5</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>5</v>
       </c>
       <c r="AY9" s="2">
         <v>5</v>
@@ -3985,29 +3963,20 @@
       <c r="AZ9" s="2">
         <v>1</v>
       </c>
+      <c r="BA9" s="2">
+        <v>1</v>
+      </c>
       <c r="BB9" s="2">
         <v>5</v>
       </c>
       <c r="BC9" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>43994.423087673611</v>
       </c>
@@ -4095,6 +4064,9 @@
       <c r="AC10" s="2">
         <v>4</v>
       </c>
+      <c r="AD10" s="2">
+        <v>4</v>
+      </c>
       <c r="AE10" s="2">
         <v>4</v>
       </c>
@@ -4102,28 +4074,31 @@
         <v>4</v>
       </c>
       <c r="AG10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM10" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN10" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>3</v>
       </c>
       <c r="AP10" s="2">
         <v>3</v>
@@ -4144,40 +4119,34 @@
         <v>3</v>
       </c>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>2</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ10" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA10" s="2">
         <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>2</v>
       </c>
       <c r="BC10" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD10" s="2">
-        <v>3</v>
-      </c>
-      <c r="BE10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF10" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43994.427336111112</v>
       </c>
@@ -4196,11 +4165,11 @@
       <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="BH11" s="3" t="s">
-        <v>29</v>
+      <c r="BD11" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43994.437382662036</v>
       </c>
@@ -4223,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -4288,6 +4257,9 @@
       <c r="AC12" s="2">
         <v>3</v>
       </c>
+      <c r="AD12" s="2">
+        <v>4</v>
+      </c>
       <c r="AE12" s="2">
         <v>4</v>
       </c>
@@ -4307,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="AK12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL12" s="2">
         <v>2</v>
@@ -4316,16 +4288,19 @@
         <v>2</v>
       </c>
       <c r="AN12" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>3</v>
       </c>
       <c r="AP12" s="2">
         <v>3</v>
       </c>
       <c r="AQ12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS12" s="2">
         <v>4</v>
@@ -4334,43 +4309,37 @@
         <v>4</v>
       </c>
       <c r="AU12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>5</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ12" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH12" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43994.45667929398</v>
       </c>
@@ -4389,14 +4358,14 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>31</v>
+      <c r="G13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
@@ -4458,44 +4427,50 @@
       <c r="AC13" s="2">
         <v>4</v>
       </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
       <c r="AE13" s="2">
         <v>1</v>
       </c>
       <c r="AF13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="2">
         <v>4</v>
       </c>
       <c r="AH13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>5</v>
       </c>
       <c r="AP13" s="2">
         <v>5</v>
       </c>
       <c r="AQ13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS13" s="2">
         <v>3</v>
@@ -4504,43 +4479,37 @@
         <v>3</v>
       </c>
       <c r="AU13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
         <v>4</v>
       </c>
       <c r="AZ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="2">
         <v>4</v>
       </c>
       <c r="BB13" s="2">
         <v>1</v>
       </c>
       <c r="BC13" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="3" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>43994.473526724541</v>
       </c>
@@ -4560,10 +4529,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -4628,6 +4597,9 @@
       <c r="AC14" s="2">
         <v>4</v>
       </c>
+      <c r="AD14" s="2">
+        <v>4</v>
+      </c>
       <c r="AE14" s="2">
         <v>4</v>
       </c>
@@ -4647,25 +4619,28 @@
         <v>4</v>
       </c>
       <c r="AK14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>5</v>
       </c>
       <c r="AP14" s="2">
         <v>5</v>
       </c>
       <c r="AQ14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS14" s="2">
         <v>3</v>
@@ -4677,40 +4652,34 @@
         <v>3</v>
       </c>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>4</v>
       </c>
       <c r="AY14" s="2">
         <v>4</v>
       </c>
       <c r="AZ14" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>4</v>
       </c>
       <c r="BC14" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>43994.489441458332</v>
       </c>
@@ -4798,11 +4767,14 @@
       <c r="AC15" s="2">
         <v>2</v>
       </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
       <c r="AE15" s="2">
         <v>1</v>
       </c>
       <c r="AF15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="2">
         <v>4</v>
@@ -4817,70 +4789,67 @@
         <v>4</v>
       </c>
       <c r="AK15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM15" s="2">
         <v>2</v>
       </c>
       <c r="AN15" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>3</v>
       </c>
       <c r="AP15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ15" s="2">
         <v>3</v>
       </c>
       <c r="AR15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="2">
         <v>3</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU15" s="2">
         <v>3</v>
       </c>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ15" s="2">
         <v>2</v>
       </c>
+      <c r="BA15" s="2">
+        <v>1</v>
+      </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="2">
         <v>2</v>
       </c>
-      <c r="BD15" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF15" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG15" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH15" s="3" t="s">
-        <v>35</v>
+      <c r="BD15" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>43994.496829236115</v>
       </c>
@@ -4900,10 +4869,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -4968,17 +4937,20 @@
       <c r="AC16" s="2">
         <v>3</v>
       </c>
+      <c r="AD16" s="2">
+        <v>5</v>
+      </c>
       <c r="AE16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" s="2">
         <v>4</v>
       </c>
       <c r="AG16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI16" s="2">
         <v>4</v>
@@ -4990,28 +4962,31 @@
         <v>4</v>
       </c>
       <c r="AL16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN16" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>4</v>
       </c>
       <c r="AP16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU16" s="2">
         <v>3</v>
@@ -5020,37 +4995,31 @@
         <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>4</v>
       </c>
       <c r="AY16" s="2">
         <v>3</v>
       </c>
       <c r="AZ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="2">
         <v>4</v>
       </c>
       <c r="BB16" s="2">
         <v>4</v>
       </c>
       <c r="BC16" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF16" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH16" s="3" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>43994.499853275462</v>
       </c>
@@ -5070,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -5138,29 +5107,32 @@
       <c r="AC17" s="2">
         <v>4</v>
       </c>
+      <c r="AD17" s="2">
+        <v>3</v>
+      </c>
       <c r="AE17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="2">
         <v>4</v>
       </c>
       <c r="AG17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM17" s="2">
         <v>3</v>
@@ -5168,6 +5140,9 @@
       <c r="AN17" s="2">
         <v>3</v>
       </c>
+      <c r="AO17" s="2">
+        <v>3</v>
+      </c>
       <c r="AP17" s="2">
         <v>3</v>
       </c>
@@ -5187,40 +5162,34 @@
         <v>3</v>
       </c>
       <c r="AV17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>4</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="2">
         <v>2</v>
       </c>
       <c r="BB17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF17" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG17" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH17" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="BD17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>43994.503419305554</v>
       </c>
@@ -5240,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -5308,11 +5277,14 @@
       <c r="AC18" s="2">
         <v>4</v>
       </c>
+      <c r="AD18" s="2">
+        <v>4</v>
+      </c>
       <c r="AE18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG18" s="2">
         <v>4</v>
@@ -5327,19 +5299,22 @@
         <v>4</v>
       </c>
       <c r="AK18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="2">
         <v>2</v>
       </c>
       <c r="AM18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO18" s="2">
         <v>3</v>
       </c>
       <c r="AP18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="2">
         <v>3</v>
@@ -5348,49 +5323,43 @@
         <v>3</v>
       </c>
       <c r="AS18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT18" s="2">
         <v>3</v>
       </c>
       <c r="AU18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>5</v>
       </c>
       <c r="AY18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ18" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>2</v>
       </c>
       <c r="BB18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC18" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD18" s="2">
-        <v>3</v>
-      </c>
-      <c r="BE18" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF18" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH18" s="3" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="BD18" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>43994.507264085652</v>
       </c>
@@ -5409,11 +5378,11 @@
       <c r="F19" s="2">
         <v>2</v>
       </c>
-      <c r="BH19" s="3" t="s">
-        <v>39</v>
+      <c r="BD19" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>43994.513033796291</v>
       </c>
@@ -5432,11 +5401,11 @@
       <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="BH20" s="3" t="s">
-        <v>40</v>
+      <c r="BD20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>43994.515408090279</v>
       </c>
@@ -5456,10 +5425,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I21" s="2">
         <v>3</v>
@@ -5524,14 +5493,17 @@
       <c r="AC21" s="2">
         <v>5</v>
       </c>
+      <c r="AD21" s="2">
+        <v>3</v>
+      </c>
       <c r="AE21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH21" s="2">
         <v>4</v>
@@ -5540,20 +5512,23 @@
         <v>4</v>
       </c>
       <c r="AJ21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="2">
         <v>5</v>
       </c>
       <c r="AM21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN21" s="2">
         <v>3</v>
       </c>
+      <c r="AO21" s="2">
+        <v>3</v>
+      </c>
       <c r="AP21" s="2">
         <v>3</v>
       </c>
@@ -5570,43 +5545,37 @@
         <v>3</v>
       </c>
       <c r="AU21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>3</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ21" s="2">
         <v>3</v>
       </c>
+      <c r="BA21" s="2">
+        <v>2</v>
+      </c>
       <c r="BB21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD21" s="2">
-        <v>3</v>
-      </c>
-      <c r="BE21" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF21" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG21" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH21" s="3" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="BD21" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>43994.516790081019</v>
       </c>
@@ -5629,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5694,44 +5663,50 @@
       <c r="AC22" s="2">
         <v>2</v>
       </c>
+      <c r="AD22" s="2">
+        <v>4</v>
+      </c>
       <c r="AE22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG22" s="2">
         <v>4</v>
       </c>
       <c r="AH22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ22" s="2">
         <v>4</v>
       </c>
       <c r="AK22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL22" s="2">
         <v>2</v>
       </c>
       <c r="AM22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN22" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>3</v>
       </c>
       <c r="AP22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ22" s="2">
         <v>3</v>
       </c>
       <c r="AR22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS22" s="2">
         <v>3</v>
@@ -5740,43 +5715,37 @@
         <v>3</v>
       </c>
       <c r="AU22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="2">
         <v>4</v>
       </c>
+      <c r="AX22" s="2">
+        <v>2</v>
+      </c>
       <c r="AY22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ22" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC22" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="2" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="BD22" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>43994.521750810185</v>
       </c>
@@ -5795,11 +5764,11 @@
       <c r="F23" s="2">
         <v>2</v>
       </c>
-      <c r="BH23" s="3" t="s">
-        <v>43</v>
+      <c r="BD23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>43994.525433287039</v>
       </c>
@@ -5818,11 +5787,11 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="BH24" s="3" t="s">
-        <v>44</v>
+      <c r="BD24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>43994.537016423608</v>
       </c>
@@ -5842,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
@@ -5910,7 +5879,9 @@
       <c r="AC25" s="3">
         <v>3</v>
       </c>
-      <c r="AD25" s="5"/>
+      <c r="AD25" s="3">
+        <v>4</v>
+      </c>
       <c r="AE25" s="3">
         <v>4</v>
       </c>
@@ -5918,19 +5889,19 @@
         <v>4</v>
       </c>
       <c r="AG25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ25" s="3">
         <v>4</v>
       </c>
       <c r="AK25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL25" s="3">
         <v>2</v>
@@ -5939,65 +5910,58 @@
         <v>2</v>
       </c>
       <c r="AN25" s="3">
-        <v>2</v>
-      </c>
-      <c r="AO25" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>5</v>
+      </c>
       <c r="AP25" s="3">
         <v>5</v>
       </c>
       <c r="AQ25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT25" s="3">
         <v>3</v>
       </c>
       <c r="AU25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW25" s="3">
         <v>4</v>
       </c>
-      <c r="AX25" s="5"/>
+      <c r="AX25" s="3">
+        <v>5</v>
+      </c>
       <c r="AY25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ25" s="3">
-        <v>4</v>
-      </c>
-      <c r="BA25" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>1</v>
+      </c>
       <c r="BB25" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="3">
-        <v>4</v>
-      </c>
-      <c r="BD25" s="3">
-        <v>5</v>
-      </c>
-      <c r="BE25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG25" s="3">
-        <v>2</v>
-      </c>
-      <c r="BH25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI25" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="BD25" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>43994.539212673611</v>
       </c>
@@ -6017,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -6085,44 +6049,50 @@
       <c r="AC26" s="2">
         <v>5</v>
       </c>
+      <c r="AD26" s="2">
+        <v>5</v>
+      </c>
       <c r="AE26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF26" s="2">
         <v>4</v>
       </c>
       <c r="AG26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ26" s="2">
         <v>4</v>
       </c>
       <c r="AK26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM26" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN26" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>4</v>
       </c>
       <c r="AP26" s="2">
         <v>4</v>
       </c>
       <c r="AQ26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6131,43 +6101,37 @@
         <v>1</v>
       </c>
       <c r="AU26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV26" s="2">
         <v>1</v>
       </c>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>4</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
+      <c r="BA26" s="2">
+        <v>1</v>
+      </c>
       <c r="BB26" s="2">
         <v>4</v>
       </c>
       <c r="BC26" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF26" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="3" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="BD26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>43994.55344689815</v>
       </c>
@@ -6187,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2">
         <v>2</v>
@@ -6255,38 +6219,44 @@
       <c r="AC27" s="2">
         <v>3</v>
       </c>
+      <c r="AD27" s="2">
+        <v>3</v>
+      </c>
       <c r="AE27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF27" s="2">
         <v>4</v>
       </c>
       <c r="AG27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL27" s="2">
         <v>2</v>
       </c>
       <c r="AM27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>3</v>
       </c>
       <c r="AP27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="2">
         <v>3</v>
@@ -6298,46 +6268,40 @@
         <v>3</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>2</v>
       </c>
       <c r="AY27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="2">
         <v>2</v>
       </c>
+      <c r="BA27" s="2">
+        <v>3</v>
+      </c>
       <c r="BB27" s="2">
         <v>2</v>
       </c>
       <c r="BC27" s="2">
         <v>1</v>
       </c>
-      <c r="BD27" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE27" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF27" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="2" t="s">
-        <v>47</v>
+      <c r="BD27" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>43994.554235729171</v>
       </c>
@@ -6357,10 +6321,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I28" s="2">
         <v>3</v>
@@ -6425,44 +6389,50 @@
       <c r="AC28" s="2">
         <v>4</v>
       </c>
+      <c r="AD28" s="2">
+        <v>4</v>
+      </c>
       <c r="AE28" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" s="2">
         <v>3</v>
       </c>
       <c r="AI28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN28" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>3</v>
       </c>
       <c r="AP28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ28" s="2">
         <v>3</v>
       </c>
       <c r="AR28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS28" s="2">
         <v>3</v>
@@ -6474,40 +6444,34 @@
         <v>3</v>
       </c>
       <c r="AV28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW28" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>5</v>
       </c>
       <c r="AY28" s="2">
         <v>4</v>
       </c>
       <c r="AZ28" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>4</v>
       </c>
       <c r="BB28" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC28" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD28" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF28" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG28" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH28" s="3" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="BD28" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>43994.608794409723</v>
       </c>
@@ -6527,10 +6491,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -6595,11 +6559,14 @@
       <c r="AC29" s="2">
         <v>4</v>
       </c>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
       <c r="AE29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG29" s="2">
         <v>4</v>
@@ -6611,28 +6578,31 @@
         <v>4</v>
       </c>
       <c r="AJ29" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="2">
         <v>1</v>
       </c>
       <c r="AL29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM29" s="2">
         <v>2</v>
       </c>
       <c r="AN29" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>3</v>
       </c>
       <c r="AP29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS29" s="2">
         <v>4</v>
@@ -6641,43 +6611,37 @@
         <v>4</v>
       </c>
       <c r="AU29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV29" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>5</v>
       </c>
       <c r="AY29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ29" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>1</v>
       </c>
       <c r="BB29" s="2">
         <v>5</v>
       </c>
       <c r="BC29" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD29" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE29" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF29" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG29" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH29" s="3" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="BD29" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>43994.612179618052</v>
       </c>
@@ -6697,13 +6661,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J30" s="2">
         <v>5</v>
@@ -6765,17 +6729,20 @@
       <c r="AC30" s="2">
         <v>3</v>
       </c>
+      <c r="AD30" s="2">
+        <v>5</v>
+      </c>
       <c r="AE30" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG30" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI30" s="2">
         <v>4</v>
@@ -6784,25 +6751,28 @@
         <v>4</v>
       </c>
       <c r="AK30" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN30" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>4</v>
       </c>
       <c r="AP30" s="2">
         <v>4</v>
       </c>
       <c r="AQ30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS30" s="2">
         <v>3</v>
@@ -6817,37 +6787,31 @@
         <v>3</v>
       </c>
       <c r="AW30" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>5</v>
       </c>
       <c r="AY30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ30" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>3</v>
       </c>
       <c r="BB30" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC30" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD30" s="2">
-        <v>4</v>
-      </c>
-      <c r="BE30" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF30" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG30" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH30" s="3" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="BD30" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>43994.618353692131</v>
       </c>
@@ -6867,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H31" s="2">
         <v>2</v>
@@ -6935,11 +6899,14 @@
       <c r="AC31" s="2">
         <v>4</v>
       </c>
+      <c r="AD31" s="2">
+        <v>4</v>
+      </c>
       <c r="AE31" s="2">
         <v>4</v>
       </c>
       <c r="AF31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG31" s="2">
         <v>3</v>
@@ -6951,20 +6918,23 @@
         <v>3</v>
       </c>
       <c r="AJ31" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="2">
         <v>5</v>
       </c>
       <c r="AM31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN31" s="2">
         <v>3</v>
       </c>
+      <c r="AO31" s="2">
+        <v>3</v>
+      </c>
       <c r="AP31" s="2">
         <v>3</v>
       </c>
@@ -6984,40 +6954,34 @@
         <v>3</v>
       </c>
       <c r="AV31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW31" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>4</v>
       </c>
       <c r="AY31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="2">
         <v>2</v>
       </c>
       <c r="BB31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC31" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD31" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE31" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF31" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG31" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH31" s="3" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="BD31" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>43994.619205034724</v>
       </c>
@@ -7037,10 +7001,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I32" s="2">
         <v>3</v>
@@ -7105,8 +7069,11 @@
       <c r="AC32" s="2">
         <v>4</v>
       </c>
+      <c r="AD32" s="2">
+        <v>3</v>
+      </c>
       <c r="AE32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF32" s="2">
         <v>4</v>
@@ -7124,10 +7091,10 @@
         <v>4</v>
       </c>
       <c r="AK32" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM32" s="2">
         <v>3</v>
@@ -7135,59 +7102,56 @@
       <c r="AN32" s="2">
         <v>3</v>
       </c>
+      <c r="AO32" s="2">
+        <v>3</v>
+      </c>
       <c r="AP32" s="2">
         <v>3</v>
       </c>
       <c r="AQ32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS32" s="2">
         <v>4</v>
       </c>
       <c r="AT32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV32" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW32" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>5</v>
       </c>
       <c r="AY32" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ32" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>3</v>
       </c>
       <c r="BB32" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC32" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD32" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE32" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF32" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG32" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH32" s="3" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="BD32" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>43994.625798078705</v>
       </c>
@@ -7207,10 +7171,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
@@ -7275,14 +7239,17 @@
       <c r="AC33" s="2">
         <v>5</v>
       </c>
+      <c r="AD33" s="2">
+        <v>4</v>
+      </c>
       <c r="AE33" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF33" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="2">
         <v>4</v>
@@ -7291,73 +7258,70 @@
         <v>4</v>
       </c>
       <c r="AJ33" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK33" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN33" s="2">
         <v>3</v>
       </c>
+      <c r="AO33" s="2">
+        <v>4</v>
+      </c>
       <c r="AP33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ33" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR33" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU33" s="2">
         <v>3</v>
       </c>
       <c r="AV33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW33" s="2">
         <v>3</v>
       </c>
+      <c r="AX33" s="2">
+        <v>2</v>
+      </c>
       <c r="AY33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ33" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA33" s="2">
+        <v>1</v>
       </c>
       <c r="BB33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC33" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF33" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH33" s="3" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="BD33" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>43994.627522175928</v>
       </c>
@@ -7377,10 +7341,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -7445,6 +7409,9 @@
       <c r="AC34" s="2">
         <v>4</v>
       </c>
+      <c r="AD34" s="2">
+        <v>4</v>
+      </c>
       <c r="AE34" s="2">
         <v>4</v>
       </c>
@@ -7452,43 +7419,46 @@
         <v>4</v>
       </c>
       <c r="AG34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH34" s="2">
         <v>3</v>
       </c>
       <c r="AI34" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ34" s="2">
         <v>4</v>
       </c>
       <c r="AK34" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM34" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>3</v>
       </c>
       <c r="AP34" s="2">
         <v>3</v>
       </c>
       <c r="AQ34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="2">
         <v>1</v>
       </c>
       <c r="AT34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU34" s="2">
         <v>1</v>
@@ -7497,37 +7467,31 @@
         <v>3</v>
       </c>
       <c r="AW34" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>5</v>
       </c>
       <c r="AY34" s="2">
         <v>3</v>
       </c>
       <c r="AZ34" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA34" s="2">
+        <v>3</v>
       </c>
       <c r="BB34" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC34" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE34" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF34" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH34" s="2" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="BD34" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43994.631101041668</v>
       </c>
@@ -7547,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H35" s="2">
         <v>2</v>
@@ -7615,8 +7579,11 @@
       <c r="AC35" s="2">
         <v>3</v>
       </c>
+      <c r="AD35" s="2">
+        <v>3</v>
+      </c>
       <c r="AE35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF35" s="2">
         <v>4</v>
@@ -7625,19 +7592,19 @@
         <v>4</v>
       </c>
       <c r="AH35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ35" s="2">
         <v>4</v>
       </c>
       <c r="AK35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM35" s="2">
         <v>3</v>
@@ -7645,14 +7612,17 @@
       <c r="AN35" s="2">
         <v>3</v>
       </c>
+      <c r="AO35" s="2">
+        <v>3</v>
+      </c>
       <c r="AP35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ35" s="2">
         <v>3</v>
       </c>
       <c r="AR35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS35" s="2">
         <v>3</v>
@@ -7664,40 +7634,34 @@
         <v>3</v>
       </c>
       <c r="AV35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW35" s="2">
         <v>3</v>
       </c>
+      <c r="AX35" s="2">
+        <v>4</v>
+      </c>
       <c r="AY35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ35" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA35" s="2">
+        <v>2</v>
       </c>
       <c r="BB35" s="2">
         <v>4</v>
       </c>
       <c r="BC35" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD35" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE35" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF35" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG35" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH35" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="BD35" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>43994.632057002316</v>
       </c>
@@ -7717,10 +7681,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I36" s="2">
         <v>3</v>
@@ -7785,6 +7749,9 @@
       <c r="AC36" s="2">
         <v>3</v>
       </c>
+      <c r="AD36" s="2">
+        <v>4</v>
+      </c>
       <c r="AE36" s="2">
         <v>4</v>
       </c>
@@ -7798,22 +7765,25 @@
         <v>4</v>
       </c>
       <c r="AI36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ36" s="2">
         <v>5</v>
       </c>
       <c r="AK36" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL36" s="2">
         <v>3</v>
       </c>
       <c r="AM36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN36" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>3</v>
       </c>
       <c r="AP36" s="2">
         <v>3</v>
@@ -7834,40 +7804,34 @@
         <v>3</v>
       </c>
       <c r="AV36" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW36" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX36" s="2">
+        <v>2</v>
       </c>
       <c r="AY36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ36" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA36" s="2">
+        <v>2</v>
       </c>
       <c r="BB36" s="2">
         <v>2</v>
       </c>
       <c r="BC36" s="2">
-        <v>2</v>
-      </c>
-      <c r="BD36" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE36" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF36" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG36" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH36" s="3" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="BD36" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43994.637087407405</v>
       </c>
@@ -7887,10 +7851,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
@@ -7955,26 +7919,29 @@
       <c r="AC37" s="2">
         <v>3</v>
       </c>
+      <c r="AD37" s="2">
+        <v>3</v>
+      </c>
       <c r="AE37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF37" s="2">
         <v>4</v>
       </c>
       <c r="AG37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH37" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI37" s="2">
         <v>5</v>
       </c>
       <c r="AJ37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL37" s="2">
         <v>3</v>
@@ -7985,14 +7952,17 @@
       <c r="AN37" s="2">
         <v>3</v>
       </c>
+      <c r="AO37" s="2">
+        <v>3</v>
+      </c>
       <c r="AP37" s="2">
         <v>3</v>
       </c>
       <c r="AQ37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS37" s="2">
         <v>4</v>
@@ -8004,40 +7974,34 @@
         <v>4</v>
       </c>
       <c r="AV37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="2">
         <v>4</v>
       </c>
+      <c r="AX37" s="2">
+        <v>3</v>
+      </c>
       <c r="AY37" s="2">
         <v>3</v>
       </c>
       <c r="AZ37" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>3</v>
       </c>
       <c r="BB37" s="2">
         <v>3</v>
       </c>
       <c r="BC37" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD37" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE37" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF37" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH37" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="BD37" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>43994.638172951389</v>
       </c>
@@ -8056,11 +8020,11 @@
       <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="BH38" s="3" t="s">
-        <v>58</v>
+      <c r="BD38" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43994.640454444445</v>
       </c>
@@ -8080,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H39" s="2">
         <v>2</v>
@@ -8148,89 +8112,89 @@
       <c r="AC39" s="2">
         <v>5</v>
       </c>
+      <c r="AD39" s="2">
+        <v>3</v>
+      </c>
       <c r="AE39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH39" s="2">
         <v>4</v>
       </c>
       <c r="AI39" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ39" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL39" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM39" s="2">
         <v>4</v>
       </c>
       <c r="AN39" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO39" s="2">
         <v>4</v>
       </c>
       <c r="AP39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS39" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU39" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW39" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>4</v>
       </c>
       <c r="AY39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ39" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA39" s="2">
+        <v>5</v>
       </c>
       <c r="BB39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC39" s="2">
         <v>1</v>
       </c>
-      <c r="BD39" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE39" s="2">
-        <v>5</v>
-      </c>
-      <c r="BF39" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG39" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH39" s="3" t="s">
-        <v>59</v>
+      <c r="BD39" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43994.640608298607</v>
       </c>
@@ -8250,10 +8214,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
@@ -8318,6 +8282,9 @@
       <c r="AC40" s="2">
         <v>4</v>
       </c>
+      <c r="AD40" s="2">
+        <v>4</v>
+      </c>
       <c r="AE40" s="2">
         <v>4</v>
       </c>
@@ -8334,73 +8301,70 @@
         <v>4</v>
       </c>
       <c r="AJ40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK40" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL40" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM40" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN40" s="2">
         <v>3</v>
       </c>
+      <c r="AO40" s="2">
+        <v>1</v>
+      </c>
       <c r="AP40" s="2">
         <v>3</v>
       </c>
       <c r="AQ40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR40" s="2">
         <v>3</v>
       </c>
       <c r="AS40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT40" s="2">
         <v>3</v>
       </c>
       <c r="AU40" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW40" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>2</v>
       </c>
       <c r="AY40" s="2">
         <v>4</v>
       </c>
       <c r="AZ40" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BA40" s="2">
+        <v>1</v>
       </c>
       <c r="BB40" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC40" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD40" s="2">
-        <v>5</v>
-      </c>
-      <c r="BE40" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF40" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG40" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH40" s="3" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="BD40" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>43994.640690115746</v>
       </c>
@@ -8420,10 +8384,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
@@ -8488,6 +8452,9 @@
       <c r="AC41" s="2">
         <v>5</v>
       </c>
+      <c r="AD41" s="2">
+        <v>3</v>
+      </c>
       <c r="AE41" s="2">
         <v>3</v>
       </c>
@@ -8501,13 +8468,13 @@
         <v>3</v>
       </c>
       <c r="AI41" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ41" s="2">
         <v>4</v>
       </c>
       <c r="AK41" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="2">
         <v>1</v>
@@ -8518,8 +8485,11 @@
       <c r="AN41" s="2">
         <v>1</v>
       </c>
+      <c r="AO41" s="2">
+        <v>3</v>
+      </c>
       <c r="AP41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ41" s="2">
         <v>3</v>
@@ -8537,40 +8507,34 @@
         <v>3</v>
       </c>
       <c r="AV41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="2">
         <v>3</v>
       </c>
+      <c r="AX41" s="2">
+        <v>2</v>
+      </c>
       <c r="AY41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ41" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA41" s="2">
+        <v>5</v>
       </c>
       <c r="BB41" s="2">
         <v>2</v>
       </c>
       <c r="BC41" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD41" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE41" s="2">
-        <v>5</v>
-      </c>
-      <c r="BF41" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG41" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH41" s="3" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="BD41" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43994.645673981482</v>
       </c>
@@ -8590,10 +8554,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -8658,6 +8622,9 @@
       <c r="AC42" s="2">
         <v>2</v>
       </c>
+      <c r="AD42" s="2">
+        <v>4</v>
+      </c>
       <c r="AE42" s="2">
         <v>4</v>
       </c>
@@ -8677,25 +8644,28 @@
         <v>4</v>
       </c>
       <c r="AK42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM42" s="2">
         <v>4</v>
       </c>
       <c r="AN42" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO42" s="2">
         <v>4</v>
       </c>
       <c r="AP42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="2">
         <v>3</v>
@@ -8710,37 +8680,31 @@
         <v>3</v>
       </c>
       <c r="AW42" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AX42" s="2">
+        <v>5</v>
       </c>
       <c r="AY42" s="2">
         <v>3</v>
       </c>
       <c r="AZ42" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="BA42" s="2">
+        <v>2</v>
       </c>
       <c r="BB42" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC42" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD42" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE42" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF42" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG42" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH42" s="3" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="BD42" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43994.65078413194</v>
       </c>
@@ -8763,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2">
         <v>3</v>
@@ -8828,26 +8792,29 @@
       <c r="AC43" s="2">
         <v>3</v>
       </c>
+      <c r="AD43" s="2">
+        <v>5</v>
+      </c>
       <c r="AE43" s="2">
         <v>5</v>
       </c>
       <c r="AF43" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG43" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH43" s="2">
         <v>5</v>
       </c>
       <c r="AI43" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL43" s="2">
         <v>5</v>
@@ -8856,16 +8823,19 @@
         <v>5</v>
       </c>
       <c r="AN43" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>3</v>
       </c>
       <c r="AP43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS43" s="2">
         <v>1</v>
@@ -8877,40 +8847,34 @@
         <v>1</v>
       </c>
       <c r="AV43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW43" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AX43" s="2">
+        <v>5</v>
       </c>
       <c r="AY43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ43" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="BA43" s="2">
+        <v>1</v>
       </c>
       <c r="BB43" s="2">
         <v>5</v>
       </c>
       <c r="BC43" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD43" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE43" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF43" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG43" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH43" s="3" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="BD43" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43994.651899884258</v>
       </c>
@@ -8930,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -8998,6 +8962,9 @@
       <c r="AC44" s="2">
         <v>5</v>
       </c>
+      <c r="AD44" s="2">
+        <v>4</v>
+      </c>
       <c r="AE44" s="2">
         <v>4</v>
       </c>
@@ -9017,70 +8984,67 @@
         <v>4</v>
       </c>
       <c r="AK44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM44" s="2">
         <v>4</v>
       </c>
       <c r="AN44" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AO44" s="2">
+        <v>3</v>
       </c>
       <c r="AP44" s="2">
         <v>3</v>
       </c>
       <c r="AQ44" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR44" s="2">
         <v>3</v>
       </c>
       <c r="AS44" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT44" s="2">
         <v>3</v>
       </c>
       <c r="AU44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX44" s="2">
         <v>3</v>
       </c>
       <c r="AY44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="2">
         <v>4</v>
       </c>
       <c r="BB44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC44" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD44" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE44" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF44" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG44" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH44" s="3" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="BD44" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43994.652894733794</v>
       </c>
@@ -9103,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -9168,6 +9132,9 @@
       <c r="AC45" s="2">
         <v>3</v>
       </c>
+      <c r="AD45" s="2">
+        <v>5</v>
+      </c>
       <c r="AE45" s="2">
         <v>5</v>
       </c>
@@ -9178,16 +9145,16 @@
         <v>5</v>
       </c>
       <c r="AH45" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI45" s="2">
         <v>4</v>
       </c>
       <c r="AJ45" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="2">
         <v>5</v>
@@ -9196,61 +9163,58 @@
         <v>5</v>
       </c>
       <c r="AN45" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AO45" s="2">
+        <v>3</v>
       </c>
       <c r="AP45" s="2">
         <v>3</v>
       </c>
       <c r="AQ45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR45" s="2">
         <v>3</v>
       </c>
       <c r="AS45" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT45" s="2">
         <v>3</v>
       </c>
       <c r="AU45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV45" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW45" s="2">
         <v>1</v>
       </c>
+      <c r="AX45" s="2">
+        <v>1</v>
+      </c>
       <c r="AY45" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ45" s="2">
         <v>1</v>
       </c>
+      <c r="BA45" s="2">
+        <v>1</v>
+      </c>
       <c r="BB45" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC45" s="2">
         <v>1</v>
       </c>
-      <c r="BD45" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE45" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF45" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG45" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH45" s="3" t="s">
-        <v>65</v>
+      <c r="BD45" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43994.657026712965</v>
       </c>
@@ -9270,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H46" s="2">
         <v>3</v>
@@ -9338,6 +9302,9 @@
       <c r="AC46" s="2">
         <v>3</v>
       </c>
+      <c r="AD46" s="2">
+        <v>4</v>
+      </c>
       <c r="AE46" s="2">
         <v>4</v>
       </c>
@@ -9348,79 +9315,76 @@
         <v>4</v>
       </c>
       <c r="AH46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI46" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ46" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK46" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL46" s="2">
         <v>5</v>
       </c>
       <c r="AM46" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN46" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AO46" s="2">
+        <v>4</v>
       </c>
       <c r="AP46" s="2">
         <v>4</v>
       </c>
       <c r="AQ46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS46" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW46" s="2">
         <v>3</v>
       </c>
+      <c r="AX46" s="2">
+        <v>2</v>
+      </c>
       <c r="AY46" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="2">
         <v>3</v>
       </c>
       <c r="BB46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC46" s="2">
         <v>2</v>
       </c>
-      <c r="BD46" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE46" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF46" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG46" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH46" s="2" t="s">
-        <v>66</v>
+      <c r="BD46" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>43994.658610995371</v>
       </c>
@@ -9440,13 +9404,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H47" s="2">
         <v>2</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>31</v>
+      <c r="I47" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J47" s="2">
         <v>2</v>
@@ -9508,44 +9472,50 @@
       <c r="AC47" s="2">
         <v>5</v>
       </c>
+      <c r="AD47" s="2">
+        <v>4</v>
+      </c>
       <c r="AE47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF47" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH47" s="2">
         <v>1</v>
       </c>
       <c r="AI47" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN47" s="2">
         <v>3</v>
       </c>
+      <c r="AO47" s="2">
+        <v>3</v>
+      </c>
       <c r="AP47" s="2">
         <v>3</v>
       </c>
       <c r="AQ47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR47" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS47" s="2">
         <v>1</v>
@@ -9557,40 +9527,34 @@
         <v>1</v>
       </c>
       <c r="AV47" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW47" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AX47" s="2">
+        <v>5</v>
       </c>
       <c r="AY47" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ47" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="BA47" s="2">
+        <v>1</v>
       </c>
       <c r="BB47" s="2">
         <v>5</v>
       </c>
       <c r="BC47" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD47" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF47" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH47" s="3" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="BD47" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>43994.665071111114</v>
       </c>
@@ -9610,10 +9574,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I48" s="2">
         <v>3</v>
@@ -9678,35 +9642,41 @@
       <c r="AC48" s="2">
         <v>2</v>
       </c>
+      <c r="AD48" s="2">
+        <v>4</v>
+      </c>
       <c r="AE48" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ48" s="2">
         <v>4</v>
       </c>
       <c r="AK48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL48" s="2">
         <v>3</v>
       </c>
       <c r="AM48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN48" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AO48" s="2">
+        <v>3</v>
       </c>
       <c r="AP48" s="2">
         <v>3</v>
@@ -9718,49 +9688,43 @@
         <v>3</v>
       </c>
       <c r="AS48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT48" s="2">
         <v>3</v>
       </c>
       <c r="AU48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW48" s="2">
         <v>3</v>
       </c>
+      <c r="AX48" s="2">
+        <v>2</v>
+      </c>
       <c r="AY48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ48" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA48" s="2">
+        <v>2</v>
       </c>
       <c r="BB48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC48" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD48" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE48" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF48" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG48" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH48" s="3" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="BD48" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>43994.667914027777</v>
       </c>
@@ -9848,26 +9812,29 @@
       <c r="AC49" s="2">
         <v>4</v>
       </c>
+      <c r="AD49" s="2">
+        <v>3</v>
+      </c>
       <c r="AE49" s="2">
         <v>3</v>
       </c>
       <c r="AF49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH49" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI49" s="2">
         <v>4</v>
       </c>
       <c r="AJ49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK49" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL49" s="2">
         <v>3</v>
@@ -9876,10 +9843,13 @@
         <v>3</v>
       </c>
       <c r="AN49" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO49" s="2">
         <v>3</v>
       </c>
       <c r="AP49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ49" s="2">
         <v>3</v>
@@ -9897,40 +9867,34 @@
         <v>3</v>
       </c>
       <c r="AV49" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="2">
         <v>3</v>
       </c>
+      <c r="AX49" s="2">
+        <v>3</v>
+      </c>
       <c r="AY49" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ49" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA49" s="2">
+        <v>1</v>
       </c>
       <c r="BB49" s="2">
         <v>3</v>
       </c>
       <c r="BC49" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD49" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE49" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF49" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG49" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH49" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="BD49" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>43994.669798287039</v>
       </c>
@@ -9949,11 +9913,11 @@
       <c r="F50" s="2">
         <v>2</v>
       </c>
-      <c r="BH50" s="3" t="s">
-        <v>71</v>
+      <c r="BD50" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>43994.674234305552</v>
       </c>
@@ -9973,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H51" s="2">
         <v>2</v>
@@ -10041,8 +10005,11 @@
       <c r="AC51" s="2">
         <v>5</v>
       </c>
+      <c r="AD51" s="2">
+        <v>5</v>
+      </c>
       <c r="AE51" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF51" s="2">
         <v>4</v>
@@ -10051,19 +10018,19 @@
         <v>4</v>
       </c>
       <c r="AH51" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ51" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK51" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="2">
         <v>1</v>
@@ -10071,23 +10038,26 @@
       <c r="AN51" s="2">
         <v>1</v>
       </c>
+      <c r="AO51" s="2">
+        <v>1</v>
+      </c>
       <c r="AP51" s="2">
         <v>1</v>
       </c>
       <c r="AQ51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS51" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT51" s="2">
         <v>5</v>
       </c>
       <c r="AU51" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="2">
         <v>5</v>
@@ -10095,35 +10065,29 @@
       <c r="AW51" s="2">
         <v>1</v>
       </c>
+      <c r="AX51" s="2">
+        <v>5</v>
+      </c>
       <c r="AY51" s="2">
         <v>5</v>
       </c>
       <c r="AZ51" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA51" s="2">
         <v>1</v>
       </c>
       <c r="BB51" s="2">
         <v>5</v>
       </c>
       <c r="BC51" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD51" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE51" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF51" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG51" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH51" s="3" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="BD51" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>43994.674422673612</v>
       </c>
@@ -10211,47 +10175,53 @@
       <c r="AC52" s="2">
         <v>1</v>
       </c>
+      <c r="AD52" s="2">
+        <v>3</v>
+      </c>
       <c r="AE52" s="2">
         <v>3</v>
       </c>
       <c r="AF52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG52" s="2">
         <v>4</v>
       </c>
       <c r="AH52" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ52" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL52" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM52" s="2">
         <v>5</v>
       </c>
       <c r="AN52" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>3</v>
       </c>
       <c r="AP52" s="2">
         <v>3</v>
       </c>
       <c r="AQ52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR52" s="2">
         <v>3</v>
       </c>
       <c r="AS52" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT52" s="2">
         <v>3</v>
@@ -10263,37 +10233,31 @@
         <v>3</v>
       </c>
       <c r="AW52" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX52" s="2">
+        <v>4</v>
       </c>
       <c r="AY52" s="2">
         <v>3</v>
       </c>
       <c r="AZ52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA52" s="2">
         <v>4</v>
       </c>
       <c r="BB52" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC52" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD52" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE52" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF52" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG52" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH52" s="3" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="BD52" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>43994.677127731484</v>
       </c>
@@ -10313,10 +10277,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I53" s="2">
         <v>3</v>
@@ -10381,8 +10345,11 @@
       <c r="AC53" s="2">
         <v>4</v>
       </c>
+      <c r="AD53" s="2">
+        <v>3</v>
+      </c>
       <c r="AE53" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF53" s="2">
         <v>4</v>
@@ -10394,22 +10361,25 @@
         <v>4</v>
       </c>
       <c r="AI53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ53" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL53" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM53" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN53" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>3</v>
       </c>
       <c r="AP53" s="2">
         <v>3</v>
@@ -10430,40 +10400,34 @@
         <v>3</v>
       </c>
       <c r="AV53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW53" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>1</v>
       </c>
       <c r="AY53" s="2">
         <v>2</v>
       </c>
       <c r="AZ53" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="BA53" s="2">
+        <v>1</v>
       </c>
       <c r="BB53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC53" s="2">
         <v>2</v>
       </c>
-      <c r="BD53" s="2">
-        <v>3</v>
-      </c>
-      <c r="BE53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF53" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG53" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH53" s="3" t="s">
-        <v>74</v>
+      <c r="BD53" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>43994.684745914346</v>
       </c>
@@ -10483,13 +10447,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H54" s="2">
         <v>2</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>31</v>
+      <c r="I54" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J54" s="2">
         <v>2</v>
@@ -10551,6 +10515,9 @@
       <c r="AC54" s="2">
         <v>1</v>
       </c>
+      <c r="AD54" s="2">
+        <v>3</v>
+      </c>
       <c r="AE54" s="2">
         <v>3</v>
       </c>
@@ -10558,7 +10525,7 @@
         <v>3</v>
       </c>
       <c r="AG54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH54" s="2">
         <v>4</v>
@@ -10570,16 +10537,19 @@
         <v>4</v>
       </c>
       <c r="AK54" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN54" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>3</v>
       </c>
       <c r="AP54" s="2">
         <v>3</v>
@@ -10591,49 +10561,43 @@
         <v>3</v>
       </c>
       <c r="AS54" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="2">
         <v>3</v>
       </c>
       <c r="AU54" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW54" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX54" s="2">
+        <v>4</v>
       </c>
       <c r="AY54" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ54" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA54" s="2">
         <v>4</v>
       </c>
       <c r="BB54" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC54" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD54" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE54" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF54" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG54" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH54" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="BD54" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>43994.687129201389</v>
       </c>
@@ -10721,50 +10685,56 @@
       <c r="AC55" s="2">
         <v>4</v>
       </c>
+      <c r="AD55" s="2">
+        <v>1</v>
+      </c>
       <c r="AE55" s="2">
         <v>1</v>
       </c>
       <c r="AF55" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG55" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH55" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL55" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM55" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AO55" s="2">
+        <v>3</v>
       </c>
       <c r="AP55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ55" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR55" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS55" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT55" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU55" s="2">
         <v>4</v>
@@ -10773,7 +10743,10 @@
         <v>4</v>
       </c>
       <c r="AW55" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AX55" s="2">
+        <v>1</v>
       </c>
       <c r="AY55" s="2">
         <v>4</v>
@@ -10781,29 +10754,20 @@
       <c r="AZ55" s="2">
         <v>1</v>
       </c>
+      <c r="BA55" s="2">
+        <v>4</v>
+      </c>
       <c r="BB55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC55" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD55" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE55" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF55" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG55" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH55" s="3" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="BD55" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>43994.687225729169</v>
       </c>
@@ -10823,10 +10787,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
@@ -10891,14 +10855,17 @@
       <c r="AC56" s="2">
         <v>3</v>
       </c>
+      <c r="AD56" s="2">
+        <v>4</v>
+      </c>
       <c r="AE56" s="2">
         <v>4</v>
       </c>
       <c r="AF56" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG56" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH56" s="2">
         <v>5</v>
@@ -10907,22 +10874,25 @@
         <v>5</v>
       </c>
       <c r="AJ56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK56" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL56" s="2">
         <v>5</v>
       </c>
       <c r="AM56" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN56" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AO56" s="2">
+        <v>3</v>
       </c>
       <c r="AP56" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ56" s="2">
         <v>3</v>
@@ -10937,43 +10907,37 @@
         <v>3</v>
       </c>
       <c r="AU56" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV56" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW56" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AX56" s="2">
+        <v>5</v>
       </c>
       <c r="AY56" s="2">
         <v>2</v>
       </c>
       <c r="AZ56" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="BA56" s="2">
+        <v>3</v>
       </c>
       <c r="BB56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC56" s="2">
         <v>2</v>
       </c>
-      <c r="BD56" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE56" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF56" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG56" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH56" s="3" t="s">
-        <v>77</v>
+      <c r="BD56" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>43994.688129560185</v>
       </c>
@@ -10993,10 +10957,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
@@ -11061,14 +11025,17 @@
       <c r="AC57" s="2">
         <v>2</v>
       </c>
+      <c r="AD57" s="2">
+        <v>3</v>
+      </c>
       <c r="AE57" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF57" s="2">
         <v>4</v>
       </c>
       <c r="AG57" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH57" s="2">
         <v>1</v>
@@ -11080,28 +11047,31 @@
         <v>1</v>
       </c>
       <c r="AK57" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL57" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN57" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>5</v>
       </c>
       <c r="AP57" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR57" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS57" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT57" s="2">
         <v>1</v>
@@ -11110,40 +11080,34 @@
         <v>1</v>
       </c>
       <c r="AV57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX57" s="2">
         <v>1</v>
       </c>
       <c r="AY57" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ57" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA57" s="2">
         <v>2</v>
       </c>
       <c r="BB57" s="2">
         <v>1</v>
       </c>
       <c r="BC57" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD57" s="2">
-        <v>5</v>
-      </c>
-      <c r="BE57" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF57" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG57" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH57" s="3" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="BD57" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>43994.691324247688</v>
       </c>
@@ -11162,11 +11126,11 @@
       <c r="F58" s="2">
         <v>2</v>
       </c>
-      <c r="BH58" s="3" t="s">
-        <v>79</v>
+      <c r="BD58" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43994.691412372689</v>
       </c>
@@ -11186,13 +11150,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H59" s="2">
         <v>2</v>
       </c>
-      <c r="I59" s="7" t="s">
-        <v>31</v>
+      <c r="I59" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J59" s="2">
         <v>2</v>
@@ -11254,6 +11218,9 @@
       <c r="AC59" s="2">
         <v>4</v>
       </c>
+      <c r="AD59" s="2">
+        <v>4</v>
+      </c>
       <c r="AE59" s="2">
         <v>4</v>
       </c>
@@ -11261,13 +11228,13 @@
         <v>4</v>
       </c>
       <c r="AG59" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH59" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ59" s="2">
         <v>4</v>
@@ -11276,31 +11243,34 @@
         <v>4</v>
       </c>
       <c r="AL59" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM59" s="2">
         <v>2</v>
       </c>
       <c r="AN59" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>4</v>
       </c>
       <c r="AP59" s="2">
         <v>3</v>
       </c>
       <c r="AQ59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR59" s="2">
         <v>3</v>
       </c>
       <c r="AS59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="2">
         <v>3</v>
       </c>
       <c r="AU59" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV59" s="2">
         <v>3</v>
@@ -11308,35 +11278,29 @@
       <c r="AW59" s="2">
         <v>3</v>
       </c>
+      <c r="AX59" s="2">
+        <v>5</v>
+      </c>
       <c r="AY59" s="2">
         <v>3</v>
       </c>
       <c r="AZ59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA59" s="2">
         <v>3</v>
       </c>
       <c r="BB59" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC59" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD59" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE59" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF59" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG59" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH59" s="3" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="BD59" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>43994.69234439815</v>
       </c>
@@ -11356,10 +11320,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I60" s="2">
         <v>3</v>
@@ -11424,35 +11388,41 @@
       <c r="AC60" s="2">
         <v>1</v>
       </c>
+      <c r="AD60" s="2">
+        <v>3</v>
+      </c>
       <c r="AE60" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF60" s="2">
         <v>4</v>
       </c>
       <c r="AG60" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH60" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ60" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK60" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL60" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM60" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN60" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO60" s="2">
+        <v>1</v>
       </c>
       <c r="AP60" s="2">
         <v>3</v>
@@ -11461,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="AR60" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS60" s="2">
         <v>1</v>
@@ -11473,40 +11443,34 @@
         <v>1</v>
       </c>
       <c r="AV60" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW60" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AX60" s="2">
+        <v>2</v>
       </c>
       <c r="AY60" s="2">
         <v>3</v>
       </c>
       <c r="AZ60" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA60" s="2">
+        <v>1</v>
       </c>
       <c r="BB60" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC60" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD60" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE60" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF60" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG60" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH60" s="3" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="BD60" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>43994.69609513889</v>
       </c>
@@ -11529,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I61" s="2">
         <v>3</v>
@@ -11594,8 +11558,11 @@
       <c r="AC61" s="2">
         <v>4</v>
       </c>
+      <c r="AD61" s="2">
+        <v>4</v>
+      </c>
       <c r="AE61" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF61" s="2">
         <v>3</v>
@@ -11607,7 +11574,7 @@
         <v>3</v>
       </c>
       <c r="AI61" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ61" s="2">
         <v>4</v>
@@ -11616,14 +11583,17 @@
         <v>4</v>
       </c>
       <c r="AL61" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM61" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN61" s="2">
         <v>3</v>
       </c>
+      <c r="AO61" s="2">
+        <v>3</v>
+      </c>
       <c r="AP61" s="2">
         <v>3</v>
       </c>
@@ -11643,10 +11613,13 @@
         <v>3</v>
       </c>
       <c r="AV61" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW61" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AX61" s="2">
+        <v>1</v>
       </c>
       <c r="AY61" s="2">
         <v>1</v>
@@ -11654,29 +11627,20 @@
       <c r="AZ61" s="2">
         <v>1</v>
       </c>
+      <c r="BA61" s="2">
+        <v>1</v>
+      </c>
       <c r="BB61" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC61" s="2">
         <v>1</v>
       </c>
-      <c r="BD61" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE61" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF61" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG61" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH61" s="3" t="s">
-        <v>82</v>
+      <c r="BD61" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>43994.69734460648</v>
       </c>
@@ -11696,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
@@ -11764,11 +11728,14 @@
       <c r="AC62" s="2">
         <v>4</v>
       </c>
+      <c r="AD62" s="2">
+        <v>3</v>
+      </c>
       <c r="AE62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG62" s="2">
         <v>3</v>
@@ -11777,76 +11744,73 @@
         <v>3</v>
       </c>
       <c r="AI62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ62" s="2">
         <v>4</v>
       </c>
       <c r="AK62" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL62" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM62" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN62" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO62" s="2">
+        <v>3</v>
       </c>
       <c r="AP62" s="2">
         <v>3</v>
       </c>
       <c r="AQ62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT62" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU62" s="2">
         <v>3</v>
       </c>
       <c r="AV62" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW62" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX62" s="2">
         <v>3</v>
       </c>
       <c r="AY62" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ62" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA62" s="2">
         <v>4</v>
       </c>
       <c r="BB62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC62" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD62" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE62" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF62" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG62" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH62" s="3" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="BD62" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>43994.708568599541</v>
       </c>
@@ -11865,11 +11829,11 @@
       <c r="F63" s="2">
         <v>2</v>
       </c>
-      <c r="BH63" s="3" t="s">
-        <v>84</v>
+      <c r="BD63" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>43994.70878847222</v>
       </c>
@@ -11957,17 +11921,20 @@
       <c r="AC64" s="2">
         <v>3</v>
       </c>
+      <c r="AD64" s="2">
+        <v>4</v>
+      </c>
       <c r="AE64" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF64" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG64" s="2">
         <v>4</v>
       </c>
       <c r="AH64" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="2">
         <v>1</v>
@@ -11985,10 +11952,13 @@
         <v>1</v>
       </c>
       <c r="AN64" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO64" s="2">
         <v>1</v>
       </c>
       <c r="AP64" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ64" s="2">
         <v>1</v>
@@ -12006,40 +11976,34 @@
         <v>1</v>
       </c>
       <c r="AV64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW64" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX64" s="2">
         <v>1</v>
       </c>
       <c r="AY64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ64" s="2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="BA64" s="2">
+        <v>1</v>
       </c>
       <c r="BB64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC64" s="2">
         <v>1</v>
       </c>
-      <c r="BD64" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE64" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF64" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG64" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH64" s="3" t="s">
-        <v>85</v>
+      <c r="BD64" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>43994.716058298611</v>
       </c>
@@ -12062,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I65" s="2">
         <v>1</v>
@@ -12127,38 +12091,44 @@
       <c r="AC65" s="2">
         <v>5</v>
       </c>
+      <c r="AD65" s="2">
+        <v>4</v>
+      </c>
       <c r="AE65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF65" s="2">
         <v>3</v>
       </c>
       <c r="AG65" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH65" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI65" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK65" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL65" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM65" s="2">
         <v>5</v>
       </c>
       <c r="AN65" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>3</v>
       </c>
       <c r="AP65" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ65" s="2">
         <v>3</v>
@@ -12170,46 +12140,40 @@
         <v>3</v>
       </c>
       <c r="AT65" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU65" s="2">
         <v>3</v>
       </c>
       <c r="AV65" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW65" s="2">
         <v>3</v>
       </c>
+      <c r="AX65" s="2">
+        <v>2</v>
+      </c>
       <c r="AY65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ65" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BA65" s="2">
+        <v>5</v>
       </c>
       <c r="BB65" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC65" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD65" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE65" s="2">
-        <v>5</v>
-      </c>
-      <c r="BF65" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG65" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH65" s="3" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="BD65" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>43994.718908275463</v>
       </c>
@@ -12228,11 +12192,11 @@
       <c r="F66" s="2">
         <v>2</v>
       </c>
-      <c r="BH66" s="3" t="s">
-        <v>87</v>
+      <c r="BD66" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>43994.720285740739</v>
       </c>
@@ -12251,11 +12215,11 @@
       <c r="F67" s="2">
         <v>2</v>
       </c>
-      <c r="BH67" s="3" t="s">
-        <v>88</v>
+      <c r="BD67" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>43994.722094062497</v>
       </c>
@@ -12343,8 +12307,11 @@
       <c r="AC68" s="2">
         <v>4</v>
       </c>
+      <c r="AD68" s="2">
+        <v>3</v>
+      </c>
       <c r="AE68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF68" s="2">
         <v>4</v>
@@ -12353,31 +12320,34 @@
         <v>4</v>
       </c>
       <c r="AH68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK68" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL68" s="2">
         <v>5</v>
       </c>
       <c r="AM68" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN68" s="2">
         <v>3</v>
       </c>
+      <c r="AO68" s="2">
+        <v>3</v>
+      </c>
       <c r="AP68" s="2">
         <v>3</v>
       </c>
       <c r="AQ68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR68" s="2">
         <v>3</v>
@@ -12386,46 +12356,40 @@
         <v>4</v>
       </c>
       <c r="AT68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV68" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW68" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX68" s="2">
+        <v>4</v>
       </c>
       <c r="AY68" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ68" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="BA68" s="2">
+        <v>2</v>
       </c>
       <c r="BB68" s="2">
         <v>4</v>
       </c>
       <c r="BC68" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD68" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE68" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF68" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH68" s="3" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="BD68" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>43994.722859560185</v>
       </c>
@@ -12444,11 +12408,11 @@
       <c r="F69" s="2">
         <v>2</v>
       </c>
-      <c r="BH69" s="3" t="s">
-        <v>90</v>
+      <c r="BD69" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>43994.723063900463</v>
       </c>
@@ -12468,10 +12432,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I70" s="2">
         <v>3</v>
@@ -12536,41 +12500,47 @@
       <c r="AC70" s="2">
         <v>3</v>
       </c>
+      <c r="AD70" s="2">
+        <v>3</v>
+      </c>
       <c r="AE70" s="2">
         <v>3</v>
       </c>
       <c r="AF70" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG70" s="2">
         <v>4</v>
       </c>
       <c r="AH70" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI70" s="2">
         <v>1</v>
       </c>
       <c r="AJ70" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK70" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL70" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN70" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AO70" s="2">
+        <v>3</v>
       </c>
       <c r="AP70" s="2">
         <v>3</v>
       </c>
       <c r="AQ70" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR70" s="2">
         <v>3</v>
@@ -12579,16 +12549,19 @@
         <v>4</v>
       </c>
       <c r="AT70" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV70" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW70" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX70" s="2">
+        <v>4</v>
       </c>
       <c r="AY70" s="2">
         <v>4</v>
@@ -12596,29 +12569,20 @@
       <c r="AZ70" s="2">
         <v>4</v>
       </c>
+      <c r="BA70" s="2">
+        <v>3</v>
+      </c>
       <c r="BB70" s="2">
         <v>4</v>
       </c>
       <c r="BC70" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD70" s="2">
-        <v>4</v>
-      </c>
-      <c r="BE70" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF70" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG70" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH70" s="3" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="BD70" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>43994.724228587962</v>
       </c>
@@ -12641,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I71" s="2">
         <v>1</v>
@@ -12706,50 +12670,56 @@
       <c r="AC71" s="2">
         <v>4</v>
       </c>
+      <c r="AD71" s="2">
+        <v>3</v>
+      </c>
       <c r="AE71" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG71" s="2">
         <v>3</v>
       </c>
       <c r="AH71" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI71" s="2">
         <v>5</v>
       </c>
       <c r="AJ71" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK71" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL71" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM71" s="2">
         <v>5</v>
       </c>
       <c r="AN71" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AO71" s="2">
+        <v>1</v>
       </c>
       <c r="AP71" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ71" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR71" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS71" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU71" s="2">
         <v>3</v>
@@ -12758,37 +12728,31 @@
         <v>3</v>
       </c>
       <c r="AW71" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX71" s="2">
+        <v>5</v>
       </c>
       <c r="AY71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ71" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA71" s="2">
+        <v>3</v>
       </c>
       <c r="BB71" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC71" s="2">
         <v>2</v>
       </c>
-      <c r="BD71" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE71" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF71" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG71" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH71" s="3" t="s">
-        <v>92</v>
+      <c r="BD71" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>43994.733472442131</v>
       </c>
@@ -12807,11 +12771,11 @@
       <c r="F72" s="2">
         <v>2</v>
       </c>
-      <c r="BH72" s="3" t="s">
-        <v>93</v>
+      <c r="BD72" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>43994.73514837963</v>
       </c>
@@ -12830,11 +12794,11 @@
       <c r="F73" s="2">
         <v>2</v>
       </c>
-      <c r="BH73" s="2" t="s">
-        <v>94</v>
+      <c r="BD73" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>43994.735581168978</v>
       </c>
@@ -12854,10 +12818,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I74" s="2">
         <v>1</v>
@@ -12922,36 +12886,42 @@
       <c r="AC74" s="2">
         <v>3</v>
       </c>
+      <c r="AD74" s="2">
+        <v>3</v>
+      </c>
       <c r="AE74" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF74" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG74" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH74" s="2">
         <v>4</v>
       </c>
       <c r="AI74" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ74" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL74" s="2">
         <v>2</v>
       </c>
       <c r="AM74" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN74" s="2">
         <v>3</v>
       </c>
+      <c r="AO74" s="2">
+        <v>3</v>
+      </c>
       <c r="AP74" s="2">
         <v>3</v>
       </c>
@@ -12959,52 +12929,46 @@
         <v>3</v>
       </c>
       <c r="AR74" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS74" s="2">
         <v>3</v>
       </c>
       <c r="AT74" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU74" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW74" s="2">
         <v>4</v>
       </c>
+      <c r="AX74" s="2">
+        <v>3</v>
+      </c>
       <c r="AY74" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ74" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="BA74" s="2">
+        <v>1</v>
       </c>
       <c r="BB74" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC74" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD74" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE74" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF74" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG74" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH74" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="BD74" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>43994.737528333339</v>
       </c>
@@ -13024,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H75" s="2">
         <v>2</v>
@@ -13092,8 +13056,11 @@
       <c r="AC75" s="2">
         <v>5</v>
       </c>
+      <c r="AD75" s="2">
+        <v>5</v>
+      </c>
       <c r="AE75" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF75" s="2">
         <v>4</v>
@@ -13111,45 +13078,54 @@
         <v>4</v>
       </c>
       <c r="AK75" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL75" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM75" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN75" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AO75" s="2">
+        <v>3</v>
       </c>
       <c r="AP75" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ75" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR75" s="2">
         <v>3</v>
       </c>
       <c r="AS75" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT75" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU75" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV75" s="2">
         <v>1</v>
       </c>
       <c r="AW75" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AX75" s="2">
+        <v>2</v>
       </c>
       <c r="AY75" s="2">
         <v>1</v>
       </c>
       <c r="AZ75" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA75" s="2">
         <v>5</v>
       </c>
       <c r="BB75" s="2">
@@ -13158,23 +13134,11 @@
       <c r="BC75" s="2">
         <v>1</v>
       </c>
-      <c r="BD75" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE75" s="2">
-        <v>5</v>
-      </c>
-      <c r="BF75" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG75" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH75" s="2" t="s">
-        <v>96</v>
+      <c r="BD75" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>43994.737921655091</v>
       </c>
@@ -13193,8 +13157,8 @@
       <c r="F76" s="2">
         <v>1</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>31</v>
+      <c r="G76" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H76" s="2">
         <v>2</v>
@@ -13262,35 +13226,41 @@
       <c r="AC76" s="2">
         <v>5</v>
       </c>
+      <c r="AD76" s="2">
+        <v>3</v>
+      </c>
       <c r="AE76" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF76" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG76" s="2">
         <v>4</v>
       </c>
       <c r="AH76" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI76" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ76" s="2">
         <v>3</v>
       </c>
       <c r="AK76" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL76" s="2">
         <v>5</v>
       </c>
       <c r="AM76" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN76" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO76" s="2">
+        <v>3</v>
       </c>
       <c r="AP76" s="2">
         <v>3</v>
@@ -13311,40 +13281,34 @@
         <v>3</v>
       </c>
       <c r="AV76" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW76" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX76" s="2">
+        <v>4</v>
       </c>
       <c r="AY76" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ76" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BA76" s="2">
+        <v>1</v>
       </c>
       <c r="BB76" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC76" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD76" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE76" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF76" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG76" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH76" s="3" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="BD76" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>43994.747952673613</v>
       </c>
@@ -13432,14 +13396,17 @@
       <c r="AC77" s="2">
         <v>4</v>
       </c>
+      <c r="AD77" s="2">
+        <v>4</v>
+      </c>
       <c r="AE77" s="2">
         <v>4</v>
       </c>
       <c r="AF77" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG77" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH77" s="2">
         <v>4</v>
@@ -13448,73 +13415,70 @@
         <v>4</v>
       </c>
       <c r="AJ77" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL77" s="2">
         <v>2</v>
       </c>
       <c r="AM77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN77" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO77" s="2">
         <v>1</v>
       </c>
       <c r="AP77" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ77" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR77" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS77" s="2">
         <v>3</v>
       </c>
       <c r="AT77" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU77" s="2">
         <v>3</v>
       </c>
       <c r="AV77" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW77" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AX77" s="2">
+        <v>4</v>
       </c>
       <c r="AY77" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ77" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="BA77" s="2">
+        <v>2</v>
       </c>
       <c r="BB77" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC77" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD77" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE77" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF77" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG77" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH77" s="2" t="s">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="BD77" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>43994.749661423615</v>
       </c>
@@ -13539,8 +13503,8 @@
       <c r="H78" s="2">
         <v>3</v>
       </c>
-      <c r="I78" s="7" t="s">
-        <v>31</v>
+      <c r="I78" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
@@ -13602,14 +13566,17 @@
       <c r="AC78" s="2">
         <v>1</v>
       </c>
+      <c r="AD78" s="2">
+        <v>4</v>
+      </c>
       <c r="AE78" s="2">
         <v>4</v>
       </c>
       <c r="AF78" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG78" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH78" s="2">
         <v>1</v>
@@ -13621,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="AK78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL78" s="2">
         <v>2</v>
@@ -13630,61 +13597,58 @@
         <v>2</v>
       </c>
       <c r="AN78" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AO78" s="2">
+        <v>4</v>
       </c>
       <c r="AP78" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ78" s="2">
         <v>4</v>
       </c>
       <c r="AR78" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS78" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT78" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU78" s="2">
         <v>3</v>
       </c>
       <c r="AV78" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW78" s="2">
         <v>3</v>
       </c>
+      <c r="AX78" s="2">
+        <v>1</v>
+      </c>
       <c r="AY78" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ78" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="BA78" s="2">
+        <v>2</v>
       </c>
       <c r="BB78" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC78" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD78" s="2">
-        <v>4</v>
-      </c>
-      <c r="BE78" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF78" s="2">
-        <v>5</v>
-      </c>
-      <c r="BG78" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH78" s="3" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="BD78" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>43994.789620578704</v>
       </c>
@@ -13772,11 +13736,14 @@
       <c r="AC79" s="2">
         <v>4</v>
       </c>
+      <c r="AD79" s="2">
+        <v>4</v>
+      </c>
       <c r="AE79" s="2">
         <v>4</v>
       </c>
       <c r="AF79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG79" s="2">
         <v>3</v>
@@ -13788,28 +13755,31 @@
         <v>3</v>
       </c>
       <c r="AJ79" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK79" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL79" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM79" s="2">
         <v>4</v>
       </c>
       <c r="AN79" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AO79" s="2">
+        <v>3</v>
       </c>
       <c r="AP79" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ79" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS79" s="2">
         <v>4</v>
@@ -13818,7 +13788,7 @@
         <v>3</v>
       </c>
       <c r="AU79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV79" s="2">
         <v>3</v>
@@ -13826,35 +13796,29 @@
       <c r="AW79" s="2">
         <v>3</v>
       </c>
+      <c r="AX79" s="2">
+        <v>3</v>
+      </c>
       <c r="AY79" s="2">
         <v>3</v>
       </c>
       <c r="AZ79" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="BA79" s="2">
+        <v>4</v>
       </c>
       <c r="BB79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC79" s="2">
-        <v>3</v>
-      </c>
-      <c r="BD79" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE79" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF79" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG79" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH79" s="3" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="BD79" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>43994.822967395834</v>
       </c>
@@ -13873,11 +13837,11 @@
       <c r="F80" s="2">
         <v>2</v>
       </c>
-      <c r="BH80" s="3" t="s">
-        <v>101</v>
+      <c r="BD80" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>43994.887469317131</v>
       </c>
@@ -13897,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H81" s="2">
         <v>2</v>
@@ -13965,8 +13929,11 @@
       <c r="AC81" s="2">
         <v>3</v>
       </c>
+      <c r="AD81" s="2">
+        <v>4</v>
+      </c>
       <c r="AE81" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF81" s="2">
         <v>3</v>
@@ -13975,13 +13942,13 @@
         <v>3</v>
       </c>
       <c r="AH81" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI81" s="2">
         <v>4</v>
       </c>
       <c r="AJ81" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK81" s="2">
         <v>3</v>
@@ -13990,64 +13957,61 @@
         <v>3</v>
       </c>
       <c r="AM81" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN81" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AO81" s="2">
+        <v>4</v>
       </c>
       <c r="AP81" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ81" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR81" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS81" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT81" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU81" s="2">
         <v>4</v>
       </c>
       <c r="AV81" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW81" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX81" s="2">
         <v>4</v>
       </c>
       <c r="AY81" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ81" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA81" s="2">
         <v>5</v>
       </c>
       <c r="BB81" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC81" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD81" s="2">
-        <v>3</v>
-      </c>
-      <c r="BE81" s="2">
-        <v>5</v>
-      </c>
-      <c r="BF81" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG81" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH81" s="3" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="BD81" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>43994.926999305557</v>
       </c>
@@ -14135,26 +14099,29 @@
       <c r="AC82" s="2">
         <v>1</v>
       </c>
+      <c r="AD82" s="2">
+        <v>1</v>
+      </c>
       <c r="AE82" s="2">
         <v>1</v>
       </c>
-      <c r="AF82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG82" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH82" s="2">
+      <c r="AF82" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="3">
         <v>1</v>
       </c>
       <c r="AI82" s="3">
         <v>1</v>
       </c>
-      <c r="AJ82" s="3">
-        <v>1</v>
+      <c r="AJ82" s="2">
+        <v>4</v>
       </c>
       <c r="AK82" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="2">
         <v>1</v>
@@ -14162,17 +14129,20 @@
       <c r="AM82" s="2">
         <v>1</v>
       </c>
-      <c r="AN82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP82" s="3">
-        <v>3</v>
-      </c>
-      <c r="AQ82" s="2">
-        <v>3</v>
-      </c>
-      <c r="AR82" s="2">
-        <v>1</v>
+      <c r="AN82" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO82" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ82" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR82" s="3">
+        <v>3</v>
       </c>
       <c r="AS82" s="3">
         <v>3</v>
@@ -14183,41 +14153,35 @@
       <c r="AU82" s="3">
         <v>3</v>
       </c>
-      <c r="AV82" s="3">
-        <v>3</v>
-      </c>
-      <c r="AW82" s="3">
-        <v>3</v>
+      <c r="AV82" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW82" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX82" s="2">
+        <v>4</v>
       </c>
       <c r="AY82" s="2">
         <v>4</v>
       </c>
-      <c r="AZ82" s="2">
-        <v>4</v>
+      <c r="AZ82" s="3">
+        <v>4</v>
+      </c>
+      <c r="BA82" s="2">
+        <v>2</v>
       </c>
       <c r="BB82" s="2">
         <v>4</v>
       </c>
       <c r="BC82" s="2">
-        <v>4</v>
-      </c>
-      <c r="BD82" s="3">
-        <v>4</v>
-      </c>
-      <c r="BE82" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF82" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG82" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH82" s="3" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="BD82" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>43994.946524768515</v>
       </c>
@@ -14237,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H83" s="2">
         <v>3</v>
@@ -14305,6 +14269,9 @@
       <c r="AC83" s="2">
         <v>4</v>
       </c>
+      <c r="AD83" s="2">
+        <v>4</v>
+      </c>
       <c r="AE83" s="2">
         <v>4</v>
       </c>
@@ -14315,7 +14282,7 @@
         <v>4</v>
       </c>
       <c r="AH83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI83" s="2">
         <v>3</v>
@@ -14324,16 +14291,19 @@
         <v>3</v>
       </c>
       <c r="AK83" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL83" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM83" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN83" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AO83" s="2">
+        <v>3</v>
       </c>
       <c r="AP83" s="2">
         <v>3</v>
@@ -14345,49 +14315,43 @@
         <v>3</v>
       </c>
       <c r="AS83" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT83" s="2">
         <v>3</v>
       </c>
       <c r="AU83" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV83" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW83" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX83" s="2">
+        <v>2</v>
       </c>
       <c r="AY83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ83" s="2">
         <v>2</v>
       </c>
+      <c r="BA83" s="2">
+        <v>2</v>
+      </c>
       <c r="BB83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC83" s="2">
-        <v>2</v>
-      </c>
-      <c r="BD83" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE83" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF83" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG83" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH83" s="3" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="BD83" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>43994.949859594912</v>
       </c>
@@ -14407,13 +14371,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H84" s="2">
         <v>2</v>
       </c>
-      <c r="I84" s="7" t="s">
-        <v>31</v>
+      <c r="I84" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -14475,6 +14439,9 @@
       <c r="AC84" s="2">
         <v>5</v>
       </c>
+      <c r="AD84" s="2">
+        <v>4</v>
+      </c>
       <c r="AE84" s="2">
         <v>4</v>
       </c>
@@ -14485,34 +14452,37 @@
         <v>4</v>
       </c>
       <c r="AH84" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI84" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ84" s="2">
         <v>5</v>
       </c>
       <c r="AK84" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL84" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM84" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN84" s="2">
         <v>3</v>
       </c>
+      <c r="AO84" s="2">
+        <v>3</v>
+      </c>
       <c r="AP84" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ84" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR84" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS84" s="2">
         <v>1</v>
@@ -14524,40 +14494,34 @@
         <v>1</v>
       </c>
       <c r="AV84" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW84" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AX84" s="2">
+        <v>4</v>
       </c>
       <c r="AY84" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ84" s="2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="BA84" s="2">
+        <v>5</v>
       </c>
       <c r="BB84" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC84" s="2">
         <v>2</v>
       </c>
-      <c r="BD84" s="2">
-        <v>5</v>
-      </c>
-      <c r="BE84" s="2">
-        <v>5</v>
-      </c>
-      <c r="BF84" s="2">
-        <v>2</v>
-      </c>
-      <c r="BG84" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH84" s="3" t="s">
-        <v>105</v>
+      <c r="BD84" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>43994.950585856481</v>
       </c>
@@ -14580,7 +14544,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I85" s="2">
         <v>5</v>
@@ -14645,50 +14609,56 @@
       <c r="AC85" s="2">
         <v>4</v>
       </c>
+      <c r="AD85" s="2">
+        <v>1</v>
+      </c>
       <c r="AE85" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF85" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG85" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH85" s="2">
         <v>4</v>
       </c>
       <c r="AI85" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ85" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK85" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL85" s="2">
         <v>2</v>
       </c>
       <c r="AM85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN85" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>4</v>
       </c>
       <c r="AP85" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ85" s="2">
         <v>4</v>
       </c>
       <c r="AR85" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS85" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT85" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU85" s="2">
         <v>3</v>
@@ -14697,37 +14667,31 @@
         <v>4</v>
       </c>
       <c r="AW85" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AX85" s="2">
+        <v>4</v>
       </c>
       <c r="AY85" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ85" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BA85" s="2">
+        <v>1</v>
       </c>
       <c r="BB85" s="2">
         <v>4</v>
       </c>
       <c r="BC85" s="2">
-        <v>5</v>
-      </c>
-      <c r="BD85" s="2">
-        <v>5</v>
-      </c>
-      <c r="BE85" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF85" s="2">
-        <v>4</v>
-      </c>
-      <c r="BG85" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH85" s="3" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="BD85" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>43995.471672777778</v>
       </c>
@@ -14750,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I86" s="2">
         <v>1</v>
@@ -14815,36 +14779,42 @@
       <c r="AC86" s="2">
         <v>5</v>
       </c>
+      <c r="AD86" s="2">
+        <v>4</v>
+      </c>
       <c r="AE86" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF86" s="2">
         <v>3</v>
       </c>
       <c r="AG86" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH86" s="2">
         <v>4</v>
       </c>
       <c r="AI86" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ86" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK86" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL86" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM86" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN86" s="2">
         <v>3</v>
       </c>
+      <c r="AO86" s="2">
+        <v>3</v>
+      </c>
       <c r="AP86" s="2">
         <v>3</v>
       </c>
@@ -14861,7 +14831,7 @@
         <v>3</v>
       </c>
       <c r="AU86" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV86" s="2">
         <v>3</v>
@@ -14869,35 +14839,29 @@
       <c r="AW86" s="2">
         <v>4</v>
       </c>
+      <c r="AX86" s="2">
+        <v>5</v>
+      </c>
       <c r="AY86" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ86" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA86" s="2">
         <v>4</v>
       </c>
       <c r="BB86" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC86" s="2">
         <v>2</v>
       </c>
-      <c r="BD86" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE86" s="2">
-        <v>4</v>
-      </c>
-      <c r="BF86" s="2">
-        <v>3</v>
-      </c>
-      <c r="BG86" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH86" s="3" t="s">
-        <v>107</v>
+      <c r="BD86" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>43995.580814398149</v>
       </c>
@@ -14916,8 +14880,8 @@
       <c r="F87" s="2">
         <v>2</v>
       </c>
-      <c r="BH87" s="3" t="s">
-        <v>108</v>
+      <c r="BD87" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
